--- a/document/数据字典.xlsx
+++ b/document/数据字典.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="624" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="130">
   <si>
     <t>表目录</t>
   </si>
@@ -29,25 +29,25 @@
     <t>描述</t>
   </si>
   <si>
-    <t>auth</t>
+    <t>auths</t>
   </si>
   <si>
     <t>用户身份验证</t>
   </si>
   <si>
-    <t>area</t>
+    <t>provinces</t>
   </si>
   <si>
     <t>省份城市</t>
   </si>
   <si>
-    <t>univ</t>
+    <t>univs</t>
   </si>
   <si>
     <t>大学名称</t>
   </si>
   <si>
-    <t>team</t>
+    <t>teams</t>
   </si>
   <si>
     <t>团队信息</t>
@@ -56,7 +56,7 @@
     <t>版本</t>
   </si>
   <si>
-    <t>member</t>
+    <t>members</t>
   </si>
   <si>
     <t>团队成员信息</t>
@@ -65,43 +65,43 @@
     <t>时间</t>
   </si>
   <si>
-    <t>teacher</t>
+    <t>teachers</t>
   </si>
   <si>
     <t>指导老师信息</t>
   </si>
   <si>
-    <t>report</t>
+    <t>reports</t>
   </si>
   <si>
     <t>项目报告</t>
   </si>
   <si>
-    <t>document</t>
+    <t>documents</t>
   </si>
   <si>
     <t>作品</t>
   </si>
   <si>
-    <t>type</t>
+    <t>types</t>
   </si>
   <si>
     <t>作品类别</t>
   </si>
   <si>
-    <t>mail</t>
+    <t>mails</t>
   </si>
   <si>
     <t>邮件</t>
   </si>
   <si>
-    <t>process</t>
+    <t>processes</t>
   </si>
   <si>
     <t>比赛进程</t>
   </si>
   <si>
-    <t>config</t>
+    <t>configs</t>
   </si>
   <si>
     <t>配置项</t>
@@ -141,6 +141,7 @@
         <color rgb="FF000000"/>
         <rFont val="Droid Sans Fallback"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">默认</t>
     </r>
@@ -189,23 +190,24 @@
     <t>加密密码</t>
   </si>
   <si>
-    <t>token</t>
+    <t>remember_token</t>
   </si>
   <si>
     <t>邮箱验证令牌</t>
   </si>
   <si>
-    <t>exptime</t>
-  </si>
-  <si>
-    <t>timestamp</t>
-  </si>
-  <si>
-    <t>邮箱验证过期时间</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">注册时间</t>
+    <r>
+      <t xml:space="preserve">(ORM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">维护</t>
     </r>
     <r>
       <rPr>
@@ -215,30 +217,21 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">+15min</t>
-    </r>
-  </si>
-  <si>
-    <t>state</t>
-  </si>
-  <si>
-    <t>tinyint</t>
-  </si>
-  <si>
-    <t>用户状态</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">0-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">未激活，</t>
+      <t xml:space="preserve">)</t>
+    </r>
+  </si>
+  <si>
+    <t>exptime</t>
+  </si>
+  <si>
+    <t>timestamp</t>
+  </si>
+  <si>
+    <t>验证过期时间</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">过期时间=  创建时+</t>
     </r>
     <r>
       <rPr>
@@ -248,7 +241,21 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">1-</t>
+      <t xml:space="preserve">15min</t>
+    </r>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>tinyint</t>
+  </si>
+  <si>
+    <t>用户状态</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">0-</t>
     </r>
     <r>
       <rPr>
@@ -256,22 +263,9 @@
         <color rgb="FF000000"/>
         <rFont val="Droid Sans Fallback"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">正常</t>
-    </r>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>地区名</t>
-  </si>
-  <si>
-    <t>area_id</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">地区</t>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">未激活，</t>
     </r>
     <r>
       <rPr>
@@ -281,33 +275,31 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">ID</t>
-    </r>
-  </si>
-  <si>
-    <t>高校名</t>
-  </si>
-  <si>
-    <t>团队名称</t>
-  </si>
-  <si>
-    <t>univ_id</t>
-  </si>
-  <si>
-    <t>所属高校</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>比赛题目</t>
-  </si>
-  <si>
-    <t>logo</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">团队</t>
+      <t xml:space="preserve">1-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">正常，2-忘记密码</t>
+    </r>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>地区名</t>
+  </si>
+  <si>
+    <t>province_id</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">地区</t>
     </r>
     <r>
       <rPr>
@@ -317,15 +309,33 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">logo url</t>
-    </r>
-  </si>
-  <si>
-    <t>auth_id</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">注册用户</t>
+      <t xml:space="preserve">ID</t>
+    </r>
+  </si>
+  <si>
+    <t>高校名</t>
+  </si>
+  <si>
+    <t>团队名称</t>
+  </si>
+  <si>
+    <t>univ_id</t>
+  </si>
+  <si>
+    <t>所属高校</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>比赛题目</t>
+  </si>
+  <si>
+    <t>logo</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">团队</t>
     </r>
     <r>
       <rPr>
@@ -335,7 +345,33 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">auth</t>
+      <t xml:space="preserve">logo url</t>
+    </r>
+  </si>
+  <si>
+    <t>auth_id</t>
+  </si>
+  <si>
+    <t>注册用户auth表ID</t>
+  </si>
+  <si>
+    <t>不可重复</t>
+  </si>
+  <si>
+    <t>姓名</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>性别</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">true-</t>
     </r>
     <r>
       <rPr>
@@ -343,8 +379,9 @@
         <color rgb="FF000000"/>
         <rFont val="Droid Sans Fallback"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">表</t>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">男，</t>
     </r>
     <r>
       <rPr>
@@ -354,27 +391,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">ID</t>
-    </r>
-  </si>
-  <si>
-    <t>不可重复</t>
-  </si>
-  <si>
-    <t>姓名</t>
-  </si>
-  <si>
-    <t>sex</t>
-  </si>
-  <si>
-    <t>boolean</t>
-  </si>
-  <si>
-    <t>性别</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">true-</t>
+      <t xml:space="preserve">false-</t>
     </r>
     <r>
       <rPr>
@@ -382,8 +399,57 @@
         <color rgb="FF000000"/>
         <rFont val="Droid Sans Fallback"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">男，</t>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">女</t>
+    </r>
+  </si>
+  <si>
+    <t>学校</t>
+  </si>
+  <si>
+    <t>college</t>
+  </si>
+  <si>
+    <t>学院</t>
+  </si>
+  <si>
+    <t>major</t>
+  </si>
+  <si>
+    <t>专业</t>
+  </si>
+  <si>
+    <t>stu_num</t>
+  </si>
+  <si>
+    <t>学号</t>
+  </si>
+  <si>
+    <t>id_num</t>
+  </si>
+  <si>
+    <t>身份证号</t>
+  </si>
+  <si>
+    <t>degree</t>
+  </si>
+  <si>
+    <t>在读学历</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">0-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">专科，</t>
     </r>
     <r>
       <rPr>
@@ -393,7 +459,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">false-</t>
+      <t xml:space="preserve">1-</t>
     </r>
     <r>
       <rPr>
@@ -401,55 +467,9 @@
         <color rgb="FF000000"/>
         <rFont val="Droid Sans Fallback"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">女</t>
-    </r>
-  </si>
-  <si>
-    <t>学校</t>
-  </si>
-  <si>
-    <t>college</t>
-  </si>
-  <si>
-    <t>学院</t>
-  </si>
-  <si>
-    <t>major</t>
-  </si>
-  <si>
-    <t>专业</t>
-  </si>
-  <si>
-    <t>stu_num</t>
-  </si>
-  <si>
-    <t>学号</t>
-  </si>
-  <si>
-    <t>id_num</t>
-  </si>
-  <si>
-    <t>身份证号</t>
-  </si>
-  <si>
-    <t>degree</t>
-  </si>
-  <si>
-    <t>在读学历</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">0-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">专科，</t>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">本科，</t>
     </r>
     <r>
       <rPr>
@@ -459,7 +479,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">1-</t>
+      <t xml:space="preserve">2-</t>
     </r>
     <r>
       <rPr>
@@ -467,8 +487,9 @@
         <color rgb="FF000000"/>
         <rFont val="Droid Sans Fallback"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">本科，</t>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">硕士，</t>
     </r>
     <r>
       <rPr>
@@ -478,7 +499,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">2-</t>
+      <t xml:space="preserve">3-</t>
     </r>
     <r>
       <rPr>
@@ -486,8 +507,23 @@
         <color rgb="FF000000"/>
         <rFont val="Droid Sans Fallback"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">硕士，</t>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">博士</t>
+    </r>
+  </si>
+  <si>
+    <t>year_entry</t>
+  </si>
+  <si>
+    <t>入学年份</t>
+  </si>
+  <si>
+    <t>team_id</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">团队</t>
     </r>
     <r>
       <rPr>
@@ -497,7 +533,18 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">3-</t>
+      <t xml:space="preserve">ID</t>
+    </r>
+  </si>
+  <si>
+    <t>leader</t>
+  </si>
+  <si>
+    <t>是否队长</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">true-</t>
     </r>
     <r>
       <rPr>
@@ -505,22 +552,9 @@
         <color rgb="FF000000"/>
         <rFont val="Droid Sans Fallback"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">博士</t>
-    </r>
-  </si>
-  <si>
-    <t>year_entry</t>
-  </si>
-  <si>
-    <t>入学年份</t>
-  </si>
-  <si>
-    <t>team_id</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">团队</t>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">队长，</t>
     </r>
     <r>
       <rPr>
@@ -530,18 +564,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">ID</t>
-    </r>
-  </si>
-  <si>
-    <t>leader</t>
-  </si>
-  <si>
-    <t>是否队长</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">true-</t>
+      <t xml:space="preserve">false-</t>
     </r>
     <r>
       <rPr>
@@ -549,8 +572,56 @@
         <color rgb="FF000000"/>
         <rFont val="Droid Sans Fallback"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">队长，</t>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">队员</t>
+    </r>
+  </si>
+  <si>
+    <t>path</t>
+  </si>
+  <si>
+    <t>项目报告路径</t>
+  </si>
+  <si>
+    <t>freq</t>
+  </si>
+  <si>
+    <t>剩余提交次数</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">`-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">为无限制</t>
+    </r>
+  </si>
+  <si>
+    <t>created_at</t>
+  </si>
+  <si>
+    <t>提交时间</t>
+  </si>
+  <si>
+    <t>updated_at</t>
+  </si>
+  <si>
+    <t>更新时间</t>
+  </si>
+  <si>
+    <t>type_id</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">文档类别</t>
     </r>
     <r>
       <rPr>
@@ -560,7 +631,51 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">false-</t>
+      <t xml:space="preserve">ID</t>
+    </r>
+  </si>
+  <si>
+    <t>文档路径</t>
+  </si>
+  <si>
+    <t>文档类别</t>
+  </si>
+  <si>
+    <t>from_id</t>
+  </si>
+  <si>
+    <t>邮件发送方</t>
+  </si>
+  <si>
+    <t>to_id</t>
+  </si>
+  <si>
+    <t>邮件接收方</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>subject</t>
+  </si>
+  <si>
+    <t>主题</t>
+  </si>
+  <si>
+    <t>content</t>
+  </si>
+  <si>
+    <t>内容</t>
+  </si>
+  <si>
+    <t>flag_read</t>
+  </si>
+  <si>
+    <t>已读标记</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">true-</t>
     </r>
     <r>
       <rPr>
@@ -568,48 +683,9 @@
         <color rgb="FF000000"/>
         <rFont val="Droid Sans Fallback"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">队员</t>
-    </r>
-  </si>
-  <si>
-    <t>path</t>
-  </si>
-  <si>
-    <t>项目报告路径</t>
-  </si>
-  <si>
-    <t>freq</t>
-  </si>
-  <si>
-    <t>剩余提交次数</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">`-1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">为无限制</t>
-    </r>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>提交时间</t>
-  </si>
-  <si>
-    <t>type_id</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">文档类别</t>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">已读，</t>
     </r>
     <r>
       <rPr>
@@ -619,48 +695,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">ID</t>
-    </r>
-  </si>
-  <si>
-    <t>文档路径</t>
-  </si>
-  <si>
-    <t>文档类别</t>
-  </si>
-  <si>
-    <t>from_id</t>
-  </si>
-  <si>
-    <t>邮件发送方</t>
-  </si>
-  <si>
-    <t>to_id</t>
-  </si>
-  <si>
-    <t>邮件接收方</t>
-  </si>
-  <si>
-    <t>subject</t>
-  </si>
-  <si>
-    <t>主题</t>
-  </si>
-  <si>
-    <t>content</t>
-  </si>
-  <si>
-    <t>内容</t>
-  </si>
-  <si>
-    <t>flag_read</t>
-  </si>
-  <si>
-    <t>已读标记</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">true-</t>
+      <t xml:space="preserve">false-</t>
     </r>
     <r>
       <rPr>
@@ -668,8 +703,36 @@
         <color rgb="FF000000"/>
         <rFont val="Droid Sans Fallback"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">已读，</t>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">未读</t>
+    </r>
+  </si>
+  <si>
+    <t>deleted_at</t>
+  </si>
+  <si>
+    <t>删除标记</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>进度名</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">0-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">团队组建，</t>
     </r>
     <r>
       <rPr>
@@ -679,7 +742,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">false-</t>
+      <t xml:space="preserve">1-</t>
     </r>
     <r>
       <rPr>
@@ -687,28 +750,9 @@
         <color rgb="FF000000"/>
         <rFont val="Droid Sans Fallback"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">未读</t>
-    </r>
-  </si>
-  <si>
-    <t>flat_del</t>
-  </si>
-  <si>
-    <t>删除标记</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">true-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">已删除，</t>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">项目报告，</t>
     </r>
     <r>
       <rPr>
@@ -718,7 +762,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">false-</t>
+      <t xml:space="preserve">2-</t>
     </r>
     <r>
       <rPr>
@@ -726,16 +770,20 @@
         <color rgb="FF000000"/>
         <rFont val="Droid Sans Fallback"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">未删除</t>
-    </r>
-  </si>
-  <si>
-    <t>进度名</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">0-</t>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">最终作品</t>
+    </r>
+  </si>
+  <si>
+    <t>截止时间</t>
+  </si>
+  <si>
+    <t>文档可提交次数</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">`-1</t>
     </r>
     <r>
       <rPr>
@@ -743,64 +791,7 @@
         <color rgb="FF000000"/>
         <rFont val="Droid Sans Fallback"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">团队组建，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">1-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">项目报告，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">2-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">最终作品</t>
-    </r>
-  </si>
-  <si>
-    <t>截止时间</t>
-  </si>
-  <si>
-    <t>文档可提交次数</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">`-1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">表示无限制</t>
     </r>
@@ -849,12 +840,14 @@
       <color rgb="FF000000"/>
       <name val="Droid Sans Fallback"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Droid Sans Fallback"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -952,7 +945,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1007,14 +1000,6 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1114,16 +1099,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I115"/>
+  <dimension ref="A1:I117"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I57" activeCellId="0" sqref="I57"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I17" activeCellId="0" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="5.87854251012146"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="17.1255060728745"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="18.9392712550607"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="11.9959514170041"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.246963562753"/>
     <col collapsed="false" hidden="false" max="6" min="5" style="1" width="5.61943319838057"/>
@@ -1215,7 +1200,7 @@
       <c r="H5" s="0"/>
       <c r="I5" s="0"/>
     </row>
-    <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="n">
         <v>4</v>
       </c>
@@ -1257,7 +1242,7 @@
       </c>
       <c r="I7" s="0"/>
     </row>
-    <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="n">
         <v>6</v>
       </c>
@@ -1411,7 +1396,7 @@
       <c r="H17" s="0"/>
       <c r="I17" s="0"/>
     </row>
-    <row r="18" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
         <v>2</v>
       </c>
@@ -1524,7 +1509,7 @@
       </c>
       <c r="I22" s="4"/>
     </row>
-    <row r="23" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="n">
         <v>4</v>
       </c>
@@ -1543,51 +1528,53 @@
       <c r="H23" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="I23" s="4"/>
-    </row>
-    <row r="24" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I23" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="n">
         <v>5</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="n">
         <v>6</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0"/>
       <c r="B26" s="0"/>
       <c r="C26" s="0"/>
@@ -1598,7 +1585,7 @@
       <c r="H26" s="0"/>
       <c r="I26" s="0"/>
     </row>
-    <row r="27" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
         <v>2</v>
       </c>
@@ -1617,7 +1604,7 @@
       <c r="H27" s="10"/>
       <c r="I27" s="10"/>
     </row>
-    <row r="28" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
         <v>1</v>
       </c>
@@ -1667,24 +1654,26 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="n">
         <v>2</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D30" s="4"/>
+        <v>42</v>
+      </c>
+      <c r="D30" s="4" t="n">
+        <v>5</v>
+      </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4" t="s">
         <v>39</v>
       </c>
       <c r="G30" s="4"/>
       <c r="H30" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I30" s="4"/>
     </row>
@@ -1699,7 +1688,7 @@
       <c r="H31" s="0"/>
       <c r="I31" s="0"/>
     </row>
-    <row r="32" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="s">
         <v>2</v>
       </c>
@@ -1718,7 +1707,7 @@
       <c r="H32" s="10"/>
       <c r="I32" s="10"/>
     </row>
-    <row r="33" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="s">
         <v>1</v>
       </c>
@@ -1773,7 +1762,7 @@
         <v>2</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>38</v>
@@ -1785,7 +1774,7 @@
       </c>
       <c r="G35" s="4"/>
       <c r="H35" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I35" s="4"/>
     </row>
@@ -1794,17 +1783,19 @@
         <v>3</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D36" s="4"/>
+      <c r="D36" s="4" t="n">
+        <v>20</v>
+      </c>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
       <c r="H36" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I36" s="4"/>
     </row>
@@ -1819,7 +1810,7 @@
       <c r="H37" s="0"/>
       <c r="I37" s="0"/>
     </row>
-    <row r="38" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="s">
         <v>2</v>
       </c>
@@ -1888,24 +1879,26 @@
         <v>40</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="n">
         <v>2</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D41" s="4"/>
+        <v>42</v>
+      </c>
+      <c r="D41" s="4" t="n">
+        <v>20</v>
+      </c>
       <c r="E41" s="4"/>
       <c r="F41" s="4" t="s">
         <v>39</v>
       </c>
       <c r="G41" s="4"/>
       <c r="H41" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I41" s="4"/>
     </row>
@@ -1914,7 +1907,7 @@
         <v>3</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>38</v>
@@ -1926,7 +1919,7 @@
       </c>
       <c r="G42" s="4"/>
       <c r="H42" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I42" s="4"/>
     </row>
@@ -1935,7 +1928,7 @@
         <v>4</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>42</v>
@@ -1949,7 +1942,7 @@
         <v>39</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I43" s="4"/>
     </row>
@@ -1958,7 +1951,7 @@
         <v>5</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>42</v>
@@ -1970,7 +1963,7 @@
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
       <c r="H44" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I44" s="4"/>
     </row>
@@ -1979,7 +1972,7 @@
         <v>6</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>38</v>
@@ -1991,10 +1984,10 @@
       </c>
       <c r="G45" s="4"/>
       <c r="H45" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2008,7 +2001,7 @@
       <c r="H46" s="0"/>
       <c r="I46" s="0"/>
     </row>
-    <row r="47" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="3" t="s">
         <v>2</v>
       </c>
@@ -2082,7 +2075,7 @@
         <v>2</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>42</v>
@@ -2094,7 +2087,7 @@
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
       <c r="H50" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I50" s="4"/>
     </row>
@@ -2103,20 +2096,20 @@
         <v>3</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
       <c r="G51" s="4"/>
       <c r="H51" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2124,7 +2117,7 @@
         <v>4</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>38</v>
@@ -2136,7 +2129,7 @@
       </c>
       <c r="G52" s="4"/>
       <c r="H52" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I52" s="4"/>
     </row>
@@ -2145,19 +2138,19 @@
         <v>5</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>42</v>
       </c>
       <c r="D53" s="4" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
       <c r="H53" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I53" s="4"/>
     </row>
@@ -2166,19 +2159,19 @@
         <v>6</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>42</v>
       </c>
       <c r="D54" s="4" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
       <c r="H54" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I54" s="4"/>
     </row>
@@ -2187,7 +2180,7 @@
         <v>7</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>42</v>
@@ -2199,7 +2192,7 @@
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
       <c r="H55" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I55" s="4"/>
     </row>
@@ -2208,7 +2201,7 @@
         <v>8</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>42</v>
@@ -2220,7 +2213,7 @@
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
       <c r="H56" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I56" s="5" t="s">
         <v>44</v>
@@ -2231,20 +2224,20 @@
         <v>9</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
       <c r="G57" s="4"/>
       <c r="H57" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2252,7 +2245,7 @@
         <v>10</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>38</v>
@@ -2262,7 +2255,7 @@
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
       <c r="H58" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I58" s="4"/>
     </row>
@@ -2292,7 +2285,7 @@
         <v>12</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>38</v>
@@ -2304,7 +2297,7 @@
       </c>
       <c r="G60" s="4"/>
       <c r="H60" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I60" s="4"/>
     </row>
@@ -2313,20 +2306,20 @@
         <v>13</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
       <c r="G61" s="4"/>
       <c r="H61" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2340,7 +2333,7 @@
       <c r="H62" s="0"/>
       <c r="I62" s="0"/>
     </row>
-    <row r="63" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="3" t="s">
         <v>2</v>
       </c>
@@ -2414,7 +2407,7 @@
         <v>2</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>42</v>
@@ -2426,7 +2419,7 @@
       <c r="F66" s="4"/>
       <c r="G66" s="4"/>
       <c r="H66" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I66" s="4"/>
     </row>
@@ -2435,7 +2428,7 @@
         <v>3</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>38</v>
@@ -2447,7 +2440,7 @@
       </c>
       <c r="G67" s="4"/>
       <c r="H67" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I67" s="4"/>
     </row>
@@ -2456,7 +2449,7 @@
         <v>4</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>42</v>
@@ -2468,7 +2461,7 @@
       <c r="F68" s="4"/>
       <c r="G68" s="4"/>
       <c r="H68" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I68" s="4"/>
     </row>
@@ -2498,7 +2491,7 @@
         <v>6</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>38</v>
@@ -2510,7 +2503,7 @@
       </c>
       <c r="G70" s="4"/>
       <c r="H70" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I70" s="4"/>
     </row>
@@ -2525,7 +2518,7 @@
       <c r="H71" s="0"/>
       <c r="I71" s="0"/>
     </row>
-    <row r="72" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="3" t="s">
         <v>2</v>
       </c>
@@ -2599,7 +2592,7 @@
         <v>2</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>42</v>
@@ -2611,7 +2604,7 @@
       <c r="F75" s="4"/>
       <c r="G75" s="4"/>
       <c r="H75" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I75" s="4"/>
     </row>
@@ -2620,7 +2613,7 @@
         <v>3</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>38</v>
@@ -2632,7 +2625,7 @@
       </c>
       <c r="G76" s="4"/>
       <c r="H76" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I76" s="4"/>
     </row>
@@ -2641,7 +2634,7 @@
         <v>4</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>38</v>
@@ -2651,138 +2644,140 @@
       <c r="F77" s="4"/>
       <c r="G77" s="4"/>
       <c r="H77" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I77" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="4" t="n">
         <v>5</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c r="H78" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="I78" s="8"/>
-    </row>
-    <row r="79" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0"/>
-      <c r="B79" s="0"/>
-      <c r="C79" s="0"/>
-      <c r="D79" s="0"/>
-      <c r="E79" s="0"/>
-      <c r="F79" s="0"/>
-      <c r="G79" s="0"/>
-      <c r="H79" s="0"/>
-      <c r="I79" s="0"/>
+        <v>103</v>
+      </c>
+      <c r="I78" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c r="H79" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="I79" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="80" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="3" t="s">
+      <c r="A80" s="0"/>
+      <c r="B80" s="0"/>
+      <c r="C80" s="0"/>
+      <c r="D80" s="0"/>
+      <c r="E80" s="0"/>
+      <c r="F80" s="0"/>
+      <c r="G80" s="0"/>
+      <c r="H80" s="0"/>
+      <c r="I80" s="0"/>
+    </row>
+    <row r="81" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B80" s="9" t="s">
+      <c r="B81" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C80" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D80" s="9" t="n">
+      <c r="C81" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D81" s="9" t="n">
         <v>8</v>
       </c>
-      <c r="E80" s="11"/>
-      <c r="F80" s="11"/>
-      <c r="G80" s="11"/>
-      <c r="H80" s="11"/>
-      <c r="I80" s="11"/>
-    </row>
-    <row r="81" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B81" s="3" t="s">
+      <c r="E81" s="11"/>
+      <c r="F81" s="11"/>
+      <c r="G81" s="11"/>
+      <c r="H81" s="11"/>
+      <c r="I81" s="11"/>
+    </row>
+    <row r="82" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B82" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="C82" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D81" s="3" t="s">
+      <c r="D82" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E81" s="3" t="s">
+      <c r="E82" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F81" s="3" t="s">
+      <c r="F82" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G81" s="3" t="s">
+      <c r="G82" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H81" s="3" t="s">
+      <c r="H82" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I81" s="3" t="s">
+      <c r="I82" s="3" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D82" s="4"/>
-      <c r="E82" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F82" s="4"/>
-      <c r="G82" s="4"/>
-      <c r="H82" s="4"/>
-      <c r="I82" s="5" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>91</v>
+        <v>37</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>38</v>
       </c>
       <c r="D83" s="4"/>
-      <c r="E83" s="4"/>
-      <c r="F83" s="4" t="s">
+      <c r="E83" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="F83" s="4"/>
       <c r="G83" s="4"/>
-      <c r="H83" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="I83" s="4"/>
+      <c r="H83" s="4"/>
+      <c r="I83" s="5" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="84" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>38</v>
@@ -2794,300 +2789,302 @@
       </c>
       <c r="G84" s="4"/>
       <c r="H84" s="5" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="I84" s="4"/>
     </row>
     <row r="85" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D85" s="4" t="n">
-        <v>50</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="D85" s="4"/>
       <c r="E85" s="4"/>
-      <c r="F85" s="4"/>
+      <c r="F85" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="G85" s="4"/>
       <c r="H85" s="5" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I85" s="4"/>
     </row>
     <row r="86" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D86" s="4"/>
+        <v>42</v>
+      </c>
+      <c r="D86" s="4" t="n">
+        <v>50</v>
+      </c>
       <c r="E86" s="4"/>
       <c r="F86" s="4"/>
       <c r="G86" s="4"/>
       <c r="H86" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="I86" s="4"/>
+    </row>
+    <row r="87" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="B87" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="I86" s="4" t="s">
+      <c r="C87" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D87" s="4"/>
+      <c r="E87" s="4"/>
+      <c r="F87" s="4"/>
+      <c r="G87" s="4"/>
+      <c r="H87" s="5" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="87" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="13" t="n">
+      <c r="I87" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="13" t="n">
         <v>6</v>
       </c>
-      <c r="B87" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="C87" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="D87" s="14"/>
-      <c r="E87" s="14"/>
-      <c r="F87" s="14"/>
-      <c r="G87" s="14"/>
-      <c r="H87" s="15" t="s">
+      <c r="B88" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="I87" s="14"/>
-    </row>
-    <row r="88" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="16"/>
-      <c r="B88" s="17"/>
-      <c r="C88" s="16"/>
-      <c r="D88" s="17"/>
-      <c r="E88" s="17"/>
-      <c r="F88" s="17"/>
-      <c r="G88" s="17"/>
-      <c r="H88" s="17"/>
-      <c r="I88" s="17"/>
-    </row>
-    <row r="89" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="18" t="s">
+      <c r="C88" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c r="H88" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="I88" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="13" t="n">
+        <v>7</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c r="H89" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="I89" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="14"/>
+      <c r="B90" s="15"/>
+      <c r="C90" s="14"/>
+      <c r="D90" s="15"/>
+      <c r="E90" s="15"/>
+      <c r="F90" s="15"/>
+      <c r="G90" s="15"/>
+      <c r="H90" s="15"/>
+      <c r="I90" s="15"/>
+    </row>
+    <row r="91" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B89" s="19" t="s">
+      <c r="B91" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C89" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="D89" s="19" t="n">
+      <c r="C91" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D91" s="17" t="n">
         <v>9</v>
       </c>
-      <c r="E89" s="20"/>
-      <c r="F89" s="20"/>
-      <c r="G89" s="20"/>
-      <c r="H89" s="20"/>
-      <c r="I89" s="20"/>
-    </row>
-    <row r="90" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B90" s="3" t="s">
+      <c r="E91" s="18"/>
+      <c r="F91" s="18"/>
+      <c r="G91" s="18"/>
+      <c r="H91" s="18"/>
+      <c r="I91" s="18"/>
+    </row>
+    <row r="92" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B92" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C90" s="3" t="s">
+      <c r="C92" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D90" s="3" t="s">
+      <c r="D92" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E90" s="3" t="s">
+      <c r="E92" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F90" s="3" t="s">
+      <c r="F92" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G90" s="3" t="s">
+      <c r="G92" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H90" s="3" t="s">
+      <c r="H92" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I90" s="3" t="s">
+      <c r="I92" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="91" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D91" s="4"/>
-      <c r="E91" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F91" s="4"/>
-      <c r="G91" s="4"/>
-      <c r="H91" s="4"/>
-      <c r="I91" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D92" s="4"/>
-      <c r="E92" s="4"/>
-      <c r="F92" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G92" s="4"/>
-      <c r="H92" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="I92" s="4"/>
     </row>
     <row r="93" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D93" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="E93" s="4"/>
+        <v>38</v>
+      </c>
+      <c r="D93" s="4"/>
+      <c r="E93" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="F93" s="4"/>
       <c r="G93" s="4"/>
-      <c r="H93" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="I93" s="4"/>
+      <c r="H93" s="4"/>
+      <c r="I93" s="5" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="94" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="0"/>
-      <c r="B94" s="0"/>
-      <c r="C94" s="0"/>
-      <c r="D94" s="0"/>
-      <c r="E94" s="0"/>
-      <c r="F94" s="0"/>
-      <c r="G94" s="0"/>
-      <c r="H94" s="0"/>
-      <c r="I94" s="0"/>
+      <c r="A94" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D94" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="E94" s="4"/>
+      <c r="F94" s="4"/>
+      <c r="G94" s="4"/>
+      <c r="H94" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="I94" s="4"/>
     </row>
     <row r="95" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="3" t="s">
+      <c r="A95" s="0"/>
+      <c r="B95" s="0"/>
+      <c r="C95" s="0"/>
+      <c r="D95" s="0"/>
+      <c r="E95" s="0"/>
+      <c r="F95" s="0"/>
+      <c r="G95" s="0"/>
+      <c r="H95" s="0"/>
+      <c r="I95" s="0"/>
+    </row>
+    <row r="96" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B95" s="9" t="s">
+      <c r="B96" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C95" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D95" s="9" t="n">
+      <c r="C96" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D96" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="E95" s="11"/>
-      <c r="F95" s="11"/>
-      <c r="G95" s="11"/>
-      <c r="H95" s="11"/>
-      <c r="I95" s="11"/>
-    </row>
-    <row r="96" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B96" s="3" t="s">
+      <c r="E96" s="11"/>
+      <c r="F96" s="11"/>
+      <c r="G96" s="11"/>
+      <c r="H96" s="11"/>
+      <c r="I96" s="11"/>
+    </row>
+    <row r="97" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B97" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C96" s="3" t="s">
+      <c r="C97" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D96" s="3" t="s">
+      <c r="D97" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E96" s="3" t="s">
+      <c r="E97" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F96" s="3" t="s">
+      <c r="F97" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G96" s="3" t="s">
+      <c r="G97" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H96" s="3" t="s">
+      <c r="H97" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I96" s="3" t="s">
+      <c r="I97" s="3" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D97" s="4"/>
-      <c r="E97" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F97" s="4"/>
-      <c r="G97" s="4"/>
-      <c r="H97" s="4"/>
-      <c r="I97" s="5" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>107</v>
+        <v>37</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>38</v>
       </c>
       <c r="D98" s="4"/>
-      <c r="E98" s="4"/>
-      <c r="F98" s="4" t="s">
+      <c r="E98" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="F98" s="4"/>
       <c r="G98" s="4"/>
-      <c r="H98" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="I98" s="4"/>
-    </row>
-    <row r="99" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H98" s="4"/>
+      <c r="I98" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C99" s="4" t="s">
         <v>38</v>
@@ -3099,56 +3096,58 @@
       </c>
       <c r="G99" s="4"/>
       <c r="H99" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I99" s="4"/>
     </row>
-    <row r="100" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="D100" s="4"/>
       <c r="E100" s="4"/>
-      <c r="F100" s="4"/>
+      <c r="F100" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="G100" s="4"/>
       <c r="H100" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="I100" s="4"/>
+    </row>
+    <row r="101" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D101" s="4"/>
+      <c r="E101" s="4"/>
+      <c r="F101" s="4"/>
+      <c r="G101" s="4"/>
+      <c r="H101" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I100" s="4"/>
-    </row>
-    <row r="101" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="4" t="n">
+      <c r="I101" s="4"/>
+    </row>
+    <row r="102" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="B101" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D101" s="8"/>
-      <c r="E101" s="8"/>
-      <c r="F101" s="8"/>
-      <c r="G101" s="8"/>
-      <c r="H101" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="I101" s="8"/>
-    </row>
-    <row r="102" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="4" t="n">
-        <v>6</v>
-      </c>
       <c r="B102" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="C102" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C102" s="4" t="s">
         <v>42</v>
       </c>
       <c r="D102" s="8"/>
@@ -3156,273 +3155,294 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c r="H102" s="12" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I102" s="8"/>
     </row>
     <row r="103" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c r="H103" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="I103" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>118</v>
+      </c>
+      <c r="I103" s="8"/>
+    </row>
+    <row r="104" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c r="H104" s="12" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I104" s="8" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="0"/>
-      <c r="B105" s="0"/>
-      <c r="C105" s="0"/>
-      <c r="D105" s="0"/>
-      <c r="E105" s="0"/>
-      <c r="F105" s="0"/>
-      <c r="G105" s="0"/>
-      <c r="H105" s="0"/>
-      <c r="I105" s="0"/>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="B105" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C105" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c r="H105" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="I105" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="106" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="3" t="s">
+      <c r="A106" s="0"/>
+      <c r="B106" s="0"/>
+      <c r="C106" s="0"/>
+      <c r="D106" s="0"/>
+      <c r="E106" s="0"/>
+      <c r="F106" s="0"/>
+      <c r="G106" s="0"/>
+      <c r="H106" s="0"/>
+      <c r="I106" s="0"/>
+    </row>
+    <row r="107" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B106" s="9" t="s">
+      <c r="B107" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C106" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D106" s="9" t="n">
+      <c r="C107" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D107" s="9" t="n">
         <v>11</v>
       </c>
-      <c r="E106" s="11"/>
-      <c r="F106" s="11"/>
-      <c r="G106" s="11"/>
-      <c r="H106" s="11"/>
-      <c r="I106" s="11"/>
-    </row>
-    <row r="107" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B107" s="3" t="s">
+      <c r="E107" s="11"/>
+      <c r="F107" s="11"/>
+      <c r="G107" s="11"/>
+      <c r="H107" s="11"/>
+      <c r="I107" s="11"/>
+    </row>
+    <row r="108" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B108" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C107" s="3" t="s">
+      <c r="C108" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D107" s="3" t="s">
+      <c r="D108" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E107" s="3" t="s">
+      <c r="E108" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F107" s="3" t="s">
+      <c r="F108" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G107" s="3" t="s">
+      <c r="G108" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H107" s="3" t="s">
+      <c r="H108" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I107" s="3" t="s">
+      <c r="I108" s="3" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B108" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C108" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D108" s="4"/>
-      <c r="E108" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F108" s="4"/>
-      <c r="G108" s="4"/>
-      <c r="H108" s="4"/>
-      <c r="I108" s="5" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="D109" s="4"/>
-      <c r="E109" s="4"/>
+      <c r="E109" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="F109" s="4"/>
       <c r="G109" s="4"/>
-      <c r="H109" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="I109" s="4" t="s">
-        <v>122</v>
+      <c r="H109" s="4"/>
+      <c r="I109" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D110" s="4"/>
       <c r="E110" s="4"/>
       <c r="F110" s="4"/>
       <c r="G110" s="4"/>
       <c r="H110" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="I110" s="4"/>
+        <v>125</v>
+      </c>
+      <c r="I110" s="4" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="111" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="0"/>
-      <c r="B111" s="0"/>
-      <c r="C111" s="0"/>
-      <c r="D111" s="0"/>
-      <c r="E111" s="0"/>
-      <c r="F111" s="0"/>
-      <c r="G111" s="0"/>
-      <c r="H111" s="0"/>
-      <c r="I111" s="0"/>
+      <c r="A111" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D111" s="4"/>
+      <c r="E111" s="4"/>
+      <c r="F111" s="4"/>
+      <c r="G111" s="4"/>
+      <c r="H111" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="I111" s="4"/>
     </row>
     <row r="112" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="3" t="s">
+      <c r="A112" s="0"/>
+      <c r="B112" s="0"/>
+      <c r="C112" s="0"/>
+      <c r="D112" s="0"/>
+      <c r="E112" s="0"/>
+      <c r="F112" s="0"/>
+      <c r="G112" s="0"/>
+      <c r="H112" s="0"/>
+      <c r="I112" s="0"/>
+    </row>
+    <row r="113" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B112" s="9" t="s">
+      <c r="B113" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C112" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D112" s="9" t="n">
+      <c r="C113" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D113" s="9" t="n">
         <v>12</v>
       </c>
-      <c r="E112" s="11"/>
-      <c r="F112" s="11"/>
-      <c r="G112" s="11"/>
-      <c r="H112" s="11"/>
-      <c r="I112" s="11"/>
-    </row>
-    <row r="113" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B113" s="3" t="s">
+      <c r="E113" s="11"/>
+      <c r="F113" s="11"/>
+      <c r="G113" s="11"/>
+      <c r="H113" s="11"/>
+      <c r="I113" s="11"/>
+    </row>
+    <row r="114" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B114" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C113" s="3" t="s">
+      <c r="C114" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D113" s="3" t="s">
+      <c r="D114" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E113" s="3" t="s">
+      <c r="E114" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F113" s="3" t="s">
+      <c r="F114" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G113" s="3" t="s">
+      <c r="G114" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H113" s="3" t="s">
+      <c r="H114" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I113" s="3" t="s">
+      <c r="I114" s="3" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B114" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C114" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D114" s="4"/>
-      <c r="E114" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F114" s="4"/>
-      <c r="G114" s="4"/>
-      <c r="H114" s="4"/>
-      <c r="I114" s="5" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>98</v>
+        <v>37</v>
       </c>
       <c r="C115" s="4" t="s">
         <v>38</v>
       </c>
       <c r="D115" s="4"/>
-      <c r="E115" s="4"/>
+      <c r="E115" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="F115" s="4"/>
       <c r="G115" s="4"/>
-      <c r="H115" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="I115" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
+      <c r="H115" s="4"/>
+      <c r="I115" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D116" s="4"/>
+      <c r="E116" s="4"/>
+      <c r="F116" s="4"/>
+      <c r="G116" s="4"/>
+      <c r="H116" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="I116" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="118" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="27">
     <mergeCell ref="A1:D1"/>
@@ -3447,11 +3467,11 @@
     <mergeCell ref="E47:I47"/>
     <mergeCell ref="E63:I63"/>
     <mergeCell ref="E72:I72"/>
-    <mergeCell ref="E80:I80"/>
-    <mergeCell ref="E89:I89"/>
-    <mergeCell ref="E95:I95"/>
-    <mergeCell ref="E106:I106"/>
-    <mergeCell ref="E112:I112"/>
+    <mergeCell ref="E81:I81"/>
+    <mergeCell ref="E91:I91"/>
+    <mergeCell ref="E96:I96"/>
+    <mergeCell ref="E107:I107"/>
+    <mergeCell ref="E113:I113"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/document/数据字典.xlsx
+++ b/document/数据字典.xlsx
@@ -29,7 +29,7 @@
     <t>描述</t>
   </si>
   <si>
-    <t>auths</t>
+    <t>authens</t>
   </si>
   <si>
     <t>用户身份验证</t>
@@ -349,7 +349,7 @@
     </r>
   </si>
   <si>
-    <t>auth_id</t>
+    <t>authen_id</t>
   </si>
   <si>
     <t>注册用户auth表ID</t>
@@ -1101,8 +1101,8 @@
   </sheetPr>
   <dimension ref="A1:I117"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I17" activeCellId="0" sqref="I17"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B45" activeCellId="0" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>

--- a/document/数据字典.xlsx
+++ b/document/数据字典.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="132">
   <si>
     <t>表目录</t>
   </si>
@@ -221,28 +221,19 @@
     </r>
   </si>
   <si>
-    <t>exptime</t>
+    <t>created_at</t>
   </si>
   <si>
     <t>timestamp</t>
   </si>
   <si>
-    <t>验证过期时间</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">过期时间=  创建时+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">15min</t>
-    </r>
+    <t>创建时间</t>
+  </si>
+  <si>
+    <t>updated_at</t>
+  </si>
+  <si>
+    <t>更新时间</t>
   </si>
   <si>
     <t>state</t>
@@ -289,13 +280,16 @@
     </r>
   </si>
   <si>
+    <t>areas</t>
+  </si>
+  <si>
     <t>name</t>
   </si>
   <si>
     <t>地区名</t>
   </si>
   <si>
-    <t>province_id</t>
+    <t>area_id</t>
   </si>
   <si>
     <r>
@@ -349,6 +343,9 @@
     </r>
   </si>
   <si>
+    <t>logos/xxx</t>
+  </si>
+  <si>
     <t>authen_id</t>
   </si>
   <si>
@@ -584,6 +581,9 @@
     <t>项目报告路径</t>
   </si>
   <si>
+    <t>reports/xxx</t>
+  </si>
+  <si>
     <t>freq</t>
   </si>
   <si>
@@ -605,16 +605,7 @@
     </r>
   </si>
   <si>
-    <t>created_at</t>
-  </si>
-  <si>
     <t>提交时间</t>
-  </si>
-  <si>
-    <t>updated_at</t>
-  </si>
-  <si>
-    <t>更新时间</t>
   </si>
   <si>
     <t>type_id</t>
@@ -636,6 +627,9 @@
   </si>
   <si>
     <t>文档路径</t>
+  </si>
+  <si>
+    <t>documents/xxx</t>
   </si>
   <si>
     <t>文档类别</t>
@@ -1099,23 +1093,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I117"/>
+  <dimension ref="A1:I118"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B45" activeCellId="0" sqref="B45"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A70" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I77" activeCellId="0" sqref="I77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="5.87854251012146"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="18.9392712550607"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="11.9959514170041"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.246963562753"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="5.61943319838057"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="13.6275303643725"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="20.1255060728745"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="41.5060728744939"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9.24696356275304"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="5.87113402061856"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="18.9381443298969"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="11.9948453608247"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.2474226804124"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="5.61855670103093"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="13.6288659793814"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="20.1185567010309"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="41.5051546391753"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9.24742268041237"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="1" width="9"/>
   </cols>
   <sheetData>
@@ -1532,7 +1526,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="n">
         <v>5</v>
       </c>
@@ -1549,370 +1543,366 @@
       <c r="H24" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="I24" s="5" t="s">
+      <c r="I24" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="4" t="n">
-        <v>6</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>55</v>
-      </c>
+      <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="I25" s="4" t="s">
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="5" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0"/>
-      <c r="B26" s="0"/>
-      <c r="C26" s="0"/>
-      <c r="D26" s="0"/>
-      <c r="E26" s="0"/>
-      <c r="F26" s="0"/>
-      <c r="G26" s="0"/>
-      <c r="H26" s="0"/>
-      <c r="I26" s="0"/>
+      <c r="I26" s="4" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="0"/>
+      <c r="B27" s="0"/>
+      <c r="C27" s="0"/>
+      <c r="D27" s="0"/>
+      <c r="E27" s="0"/>
+      <c r="F27" s="0"/>
+      <c r="G27" s="0"/>
+      <c r="H27" s="0"/>
+      <c r="I27" s="0"/>
+    </row>
+    <row r="28" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B27" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D27" s="9" t="n">
+      <c r="B28" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-    </row>
-    <row r="28" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B28" s="3" t="s">
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+    </row>
+    <row r="29" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C29" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D29" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E29" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F29" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="G29" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H28" s="3" t="s">
+      <c r="H29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I28" s="3" t="s">
+      <c r="I29" s="3" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="5" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C30" s="4" t="s">
+      <c r="B31" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D30" s="4" t="n">
+      <c r="D31" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4" t="s">
+      <c r="E31" s="4"/>
+      <c r="F31" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G30" s="4"/>
-      <c r="H30" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="I30" s="4"/>
-    </row>
-    <row r="31" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0"/>
-      <c r="B31" s="0"/>
-      <c r="C31" s="0"/>
-      <c r="D31" s="0"/>
-      <c r="E31" s="0"/>
-      <c r="F31" s="0"/>
-      <c r="G31" s="0"/>
-      <c r="H31" s="0"/>
-      <c r="I31" s="0"/>
-    </row>
-    <row r="32" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="3" t="s">
+      <c r="G31" s="4"/>
+      <c r="H31" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I31" s="4"/>
+    </row>
+    <row r="32" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0"/>
+      <c r="B32" s="0"/>
+      <c r="C32" s="0"/>
+      <c r="D32" s="0"/>
+      <c r="E32" s="0"/>
+      <c r="F32" s="0"/>
+      <c r="G32" s="0"/>
+      <c r="H32" s="0"/>
+      <c r="I32" s="0"/>
+    </row>
+    <row r="33" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B33" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D32" s="9" t="n">
+      <c r="C33" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-    </row>
-    <row r="33" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B33" s="3" t="s">
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+    </row>
+    <row r="34" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C34" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D34" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E34" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="F34" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G33" s="3" t="s">
+      <c r="G34" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H33" s="3" t="s">
+      <c r="H34" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I33" s="3" t="s">
+      <c r="I34" s="3" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="5" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>38</v>
       </c>
       <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4" t="s">
+      <c r="E35" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="F35" s="4"/>
       <c r="G35" s="4"/>
-      <c r="H35" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="I35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="5" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D36" s="4" t="n">
-        <v>20</v>
-      </c>
+      <c r="D36" s="4"/>
       <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
+      <c r="F36" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="G36" s="4"/>
       <c r="H36" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I36" s="4"/>
     </row>
     <row r="37" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0"/>
-      <c r="B37" s="0"/>
-      <c r="C37" s="0"/>
-      <c r="D37" s="0"/>
-      <c r="E37" s="0"/>
-      <c r="F37" s="0"/>
-      <c r="G37" s="0"/>
-      <c r="H37" s="0"/>
-      <c r="I37" s="0"/>
-    </row>
-    <row r="38" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="3" t="s">
+      <c r="A37" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D37" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I37" s="4"/>
+    </row>
+    <row r="38" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0"/>
+      <c r="B38" s="0"/>
+      <c r="C38" s="0"/>
+      <c r="D38" s="0"/>
+      <c r="E38" s="0"/>
+      <c r="F38" s="0"/>
+      <c r="G38" s="0"/>
+      <c r="H38" s="0"/>
+      <c r="I38" s="0"/>
+    </row>
+    <row r="39" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B39" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C38" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D38" s="9" t="n">
+      <c r="C39" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11"/>
-    </row>
-    <row r="39" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B39" s="3" t="s">
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+    </row>
+    <row r="40" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C40" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D40" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="E40" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F39" s="3" t="s">
+      <c r="F40" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G39" s="3" t="s">
+      <c r="G40" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H39" s="3" t="s">
+      <c r="H40" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I39" s="3" t="s">
+      <c r="I40" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B40" s="4" t="s">
+    <row r="41" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B41" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C41" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4" t="s">
+      <c r="D41" s="4"/>
+      <c r="E41" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="5" t="s">
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="4" t="n">
+    <row r="42" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="B41" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C41" s="4" t="s">
+      <c r="B42" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D41" s="4" t="n">
+      <c r="D42" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G41" s="4"/>
-      <c r="H41" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="I41" s="4"/>
-    </row>
-    <row r="42" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D42" s="4"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4" t="s">
         <v>39</v>
@@ -1925,22 +1915,20 @@
     </row>
     <row r="43" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>66</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D43" s="4" t="n">
-        <v>50</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="D43" s="4"/>
       <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4" t="s">
+      <c r="F43" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="G43" s="4"/>
       <c r="H43" s="5" t="s">
         <v>67</v>
       </c>
@@ -1948,7 +1936,7 @@
     </row>
     <row r="44" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>68</v>
@@ -1961,205 +1949,209 @@
       </c>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
+      <c r="G44" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="H44" s="5" t="s">
         <v>69</v>
       </c>
       <c r="I44" s="4"/>
     </row>
-    <row r="45" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>70</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D45" s="4"/>
+        <v>42</v>
+      </c>
+      <c r="D45" s="4" t="n">
+        <v>50</v>
+      </c>
       <c r="E45" s="4"/>
-      <c r="F45" s="4" t="s">
-        <v>39</v>
-      </c>
+      <c r="F45" s="4"/>
       <c r="G45" s="4"/>
       <c r="H45" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="I45" s="5" t="s">
+      <c r="I45" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0"/>
-      <c r="B46" s="0"/>
-      <c r="C46" s="0"/>
-      <c r="D46" s="0"/>
-      <c r="E46" s="0"/>
-      <c r="F46" s="0"/>
-      <c r="G46" s="0"/>
-      <c r="H46" s="0"/>
-      <c r="I46" s="0"/>
-    </row>
-    <row r="47" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="3" t="s">
+    <row r="46" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G46" s="4"/>
+      <c r="H46" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0"/>
+      <c r="B47" s="0"/>
+      <c r="C47" s="0"/>
+      <c r="D47" s="0"/>
+      <c r="E47" s="0"/>
+      <c r="F47" s="0"/>
+      <c r="G47" s="0"/>
+      <c r="H47" s="0"/>
+      <c r="I47" s="0"/>
+    </row>
+    <row r="48" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B47" s="9" t="s">
+      <c r="B48" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C47" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D47" s="9" t="n">
+      <c r="C48" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
-      <c r="H47" s="11"/>
-      <c r="I47" s="11"/>
-    </row>
-    <row r="48" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B48" s="3" t="s">
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+    </row>
+    <row r="49" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B49" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C49" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="D49" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E48" s="3" t="s">
+      <c r="E49" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F48" s="3" t="s">
+      <c r="F49" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G48" s="3" t="s">
+      <c r="G49" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H48" s="3" t="s">
+      <c r="H49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I48" s="3" t="s">
+      <c r="I49" s="3" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
-      <c r="I49" s="5" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D50" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="E50" s="4"/>
+        <v>38</v>
+      </c>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
-      <c r="H50" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="I50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="5" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D51" s="4"/>
+        <v>42</v>
+      </c>
+      <c r="D51" s="4" t="n">
+        <v>10</v>
+      </c>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
       <c r="G51" s="4"/>
       <c r="H51" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="I51" s="4" t="s">
-        <v>77</v>
-      </c>
+      <c r="I51" s="4"/>
     </row>
     <row r="52" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
-      <c r="F52" s="4" t="s">
-        <v>39</v>
-      </c>
+      <c r="F52" s="4"/>
       <c r="G52" s="4"/>
       <c r="H52" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="I52" s="4"/>
+        <v>79</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D53" s="4" t="n">
-        <v>20</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="D53" s="4"/>
       <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
+      <c r="F53" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="G53" s="4"/>
       <c r="H53" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I53" s="4"/>
     </row>
     <row r="54" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>42</v>
@@ -2171,84 +2163,84 @@
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
       <c r="H54" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I54" s="4"/>
     </row>
     <row r="55" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>42</v>
       </c>
       <c r="D55" s="4" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
       <c r="H55" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I55" s="4"/>
     </row>
-    <row r="56" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>42</v>
       </c>
       <c r="D56" s="4" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
       <c r="H56" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="I56" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>87</v>
+      </c>
+      <c r="I56" s="4"/>
+    </row>
+    <row r="57" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D57" s="4"/>
+        <v>42</v>
+      </c>
+      <c r="D57" s="4" t="n">
+        <v>18</v>
+      </c>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
       <c r="G57" s="4"/>
       <c r="H57" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="I57" s="4" t="s">
         <v>89</v>
+      </c>
+      <c r="I57" s="5" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>90</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
@@ -2257,426 +2249,428 @@
       <c r="H58" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="I58" s="4"/>
+      <c r="I58" s="4" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D59" s="4" t="n">
-        <v>255</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="D59" s="4"/>
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
       <c r="H59" s="5" t="s">
-        <v>43</v>
+        <v>94</v>
       </c>
       <c r="I59" s="4"/>
     </row>
     <row r="60" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>92</v>
+        <v>41</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D60" s="4"/>
+        <v>42</v>
+      </c>
+      <c r="D60" s="4" t="n">
+        <v>255</v>
+      </c>
       <c r="E60" s="4"/>
-      <c r="F60" s="4" t="s">
-        <v>39</v>
-      </c>
+      <c r="F60" s="4"/>
       <c r="G60" s="4"/>
       <c r="H60" s="5" t="s">
-        <v>93</v>
+        <v>43</v>
       </c>
       <c r="I60" s="4"/>
     </row>
-    <row r="61" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
-      <c r="F61" s="4"/>
+      <c r="F61" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="G61" s="4"/>
       <c r="H61" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="I61" s="4" t="s">
         <v>96</v>
       </c>
+      <c r="I61" s="4"/>
     </row>
     <row r="62" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0"/>
-      <c r="B62" s="0"/>
-      <c r="C62" s="0"/>
-      <c r="D62" s="0"/>
-      <c r="E62" s="0"/>
-      <c r="F62" s="0"/>
-      <c r="G62" s="0"/>
-      <c r="H62" s="0"/>
-      <c r="I62" s="0"/>
-    </row>
-    <row r="63" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="3" t="s">
+      <c r="A62" s="4" t="n">
+        <v>13</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="I62" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0"/>
+      <c r="B63" s="0"/>
+      <c r="C63" s="0"/>
+      <c r="D63" s="0"/>
+      <c r="E63" s="0"/>
+      <c r="F63" s="0"/>
+      <c r="G63" s="0"/>
+      <c r="H63" s="0"/>
+      <c r="I63" s="0"/>
+    </row>
+    <row r="64" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B63" s="9" t="s">
+      <c r="B64" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C63" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D63" s="9" t="n">
+      <c r="C64" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D64" s="9" t="n">
         <v>6</v>
       </c>
-      <c r="E63" s="11"/>
-      <c r="F63" s="11"/>
-      <c r="G63" s="11"/>
-      <c r="H63" s="11"/>
-      <c r="I63" s="11"/>
-    </row>
-    <row r="64" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B64" s="3" t="s">
+      <c r="E64" s="11"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="11"/>
+      <c r="H64" s="11"/>
+      <c r="I64" s="11"/>
+    </row>
+    <row r="65" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B65" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="C65" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D64" s="3" t="s">
+      <c r="D65" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E64" s="3" t="s">
+      <c r="E65" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F64" s="3" t="s">
+      <c r="F65" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G64" s="3" t="s">
+      <c r="G65" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H64" s="3" t="s">
+      <c r="H65" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I64" s="3" t="s">
+      <c r="I65" s="3" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D65" s="4"/>
-      <c r="E65" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F65" s="4"/>
-      <c r="G65" s="4"/>
-      <c r="H65" s="4"/>
-      <c r="I65" s="5" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D66" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="E66" s="4"/>
+        <v>38</v>
+      </c>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="F66" s="4"/>
       <c r="G66" s="4"/>
-      <c r="H66" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="I66" s="4"/>
+      <c r="H66" s="4"/>
+      <c r="I66" s="5" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="67" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D67" s="4"/>
+        <v>42</v>
+      </c>
+      <c r="D67" s="4" t="n">
+        <v>10</v>
+      </c>
       <c r="E67" s="4"/>
-      <c r="F67" s="4" t="s">
-        <v>39</v>
-      </c>
+      <c r="F67" s="4"/>
       <c r="G67" s="4"/>
       <c r="H67" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I67" s="4"/>
     </row>
     <row r="68" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D68" s="4" t="n">
-        <v>10</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="D68" s="4"/>
       <c r="E68" s="4"/>
-      <c r="F68" s="4"/>
+      <c r="F68" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="G68" s="4"/>
       <c r="H68" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I68" s="4"/>
     </row>
     <row r="69" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>42</v>
       </c>
       <c r="D69" s="4" t="n">
-        <v>255</v>
+        <v>10</v>
       </c>
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
       <c r="G69" s="4"/>
       <c r="H69" s="5" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="I69" s="4"/>
     </row>
     <row r="70" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>92</v>
+        <v>41</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D70" s="4"/>
+        <v>42</v>
+      </c>
+      <c r="D70" s="4" t="n">
+        <v>255</v>
+      </c>
       <c r="E70" s="4"/>
-      <c r="F70" s="4" t="s">
-        <v>39</v>
-      </c>
+      <c r="F70" s="4"/>
       <c r="G70" s="4"/>
       <c r="H70" s="5" t="s">
-        <v>93</v>
+        <v>43</v>
       </c>
       <c r="I70" s="4"/>
     </row>
     <row r="71" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0"/>
-      <c r="B71" s="0"/>
-      <c r="C71" s="0"/>
-      <c r="D71" s="0"/>
-      <c r="E71" s="0"/>
-      <c r="F71" s="0"/>
-      <c r="G71" s="0"/>
-      <c r="H71" s="0"/>
-      <c r="I71" s="0"/>
-    </row>
-    <row r="72" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="3" t="s">
+      <c r="A71" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G71" s="4"/>
+      <c r="H71" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="I71" s="4"/>
+    </row>
+    <row r="72" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0"/>
+      <c r="B72" s="0"/>
+      <c r="C72" s="0"/>
+      <c r="D72" s="0"/>
+      <c r="E72" s="0"/>
+      <c r="F72" s="0"/>
+      <c r="G72" s="0"/>
+      <c r="H72" s="0"/>
+      <c r="I72" s="0"/>
+    </row>
+    <row r="73" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B72" s="9" t="s">
+      <c r="B73" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C72" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D72" s="9" t="n">
+      <c r="C73" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D73" s="9" t="n">
         <v>7</v>
       </c>
-      <c r="E72" s="11"/>
-      <c r="F72" s="11"/>
-      <c r="G72" s="11"/>
-      <c r="H72" s="11"/>
-      <c r="I72" s="11"/>
-    </row>
-    <row r="73" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B73" s="3" t="s">
+      <c r="E73" s="11"/>
+      <c r="F73" s="11"/>
+      <c r="G73" s="11"/>
+      <c r="H73" s="11"/>
+      <c r="I73" s="11"/>
+    </row>
+    <row r="74" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B74" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="C74" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D73" s="3" t="s">
+      <c r="D74" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E73" s="3" t="s">
+      <c r="E74" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F73" s="3" t="s">
+      <c r="F74" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G73" s="3" t="s">
+      <c r="G74" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H73" s="3" t="s">
+      <c r="H74" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I73" s="3" t="s">
+      <c r="I74" s="3" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D74" s="4"/>
-      <c r="E74" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F74" s="4"/>
-      <c r="G74" s="4"/>
-      <c r="H74" s="4"/>
-      <c r="I74" s="5" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>97</v>
+        <v>37</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D75" s="4" t="n">
-        <v>50</v>
-      </c>
-      <c r="E75" s="4"/>
+        <v>38</v>
+      </c>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="F75" s="4"/>
       <c r="G75" s="4"/>
-      <c r="H75" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="I75" s="4"/>
+      <c r="H75" s="4"/>
+      <c r="I75" s="5" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="76" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D76" s="4"/>
+        <v>42</v>
+      </c>
+      <c r="D76" s="4" t="n">
+        <v>50</v>
+      </c>
       <c r="E76" s="4"/>
-      <c r="F76" s="4" t="s">
-        <v>39</v>
-      </c>
+      <c r="F76" s="4"/>
       <c r="G76" s="4"/>
       <c r="H76" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="I76" s="4"/>
+        <v>101</v>
+      </c>
+      <c r="I76" s="4" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="77" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>38</v>
       </c>
       <c r="D77" s="4"/>
       <c r="E77" s="4"/>
-      <c r="F77" s="4"/>
+      <c r="F77" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="G77" s="4"/>
       <c r="H77" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="I77" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>96</v>
+      </c>
+      <c r="I77" s="4"/>
+    </row>
+    <row r="78" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="B78" s="8" t="s">
-        <v>102</v>
+        <v>4</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>103</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D78" s="8"/>
-      <c r="E78" s="8"/>
-      <c r="F78" s="8"/>
-      <c r="G78" s="8"/>
-      <c r="H78" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="I78" s="8" t="s">
-        <v>49</v>
+        <v>38</v>
+      </c>
+      <c r="D78" s="4"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="4"/>
+      <c r="H78" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="I78" s="4" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>104</v>
+        <v>50</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>51</v>
@@ -2686,119 +2680,119 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c r="H79" s="12" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I79" s="8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0"/>
-      <c r="B80" s="0"/>
-      <c r="C80" s="0"/>
-      <c r="D80" s="0"/>
-      <c r="E80" s="0"/>
-      <c r="F80" s="0"/>
-      <c r="G80" s="0"/>
-      <c r="H80" s="0"/>
-      <c r="I80" s="0"/>
-    </row>
-    <row r="81" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="3" t="s">
+    <row r="80" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c r="H80" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="I80" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0"/>
+      <c r="B81" s="0"/>
+      <c r="C81" s="0"/>
+      <c r="D81" s="0"/>
+      <c r="E81" s="0"/>
+      <c r="F81" s="0"/>
+      <c r="G81" s="0"/>
+      <c r="H81" s="0"/>
+      <c r="I81" s="0"/>
+    </row>
+    <row r="82" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B81" s="9" t="s">
+      <c r="B82" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C81" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D81" s="9" t="n">
+      <c r="C82" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D82" s="9" t="n">
         <v>8</v>
       </c>
-      <c r="E81" s="11"/>
-      <c r="F81" s="11"/>
-      <c r="G81" s="11"/>
-      <c r="H81" s="11"/>
-      <c r="I81" s="11"/>
-    </row>
-    <row r="82" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B82" s="3" t="s">
+      <c r="E82" s="11"/>
+      <c r="F82" s="11"/>
+      <c r="G82" s="11"/>
+      <c r="H82" s="11"/>
+      <c r="I82" s="11"/>
+    </row>
+    <row r="83" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B83" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="C83" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D82" s="3" t="s">
+      <c r="D83" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E82" s="3" t="s">
+      <c r="E83" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F82" s="3" t="s">
+      <c r="F83" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G82" s="3" t="s">
+      <c r="G83" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H82" s="3" t="s">
+      <c r="H83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I82" s="3" t="s">
+      <c r="I83" s="3" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D83" s="4"/>
-      <c r="E83" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F83" s="4"/>
-      <c r="G83" s="4"/>
-      <c r="H83" s="4"/>
-      <c r="I83" s="5" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>92</v>
+        <v>37</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>38</v>
       </c>
       <c r="D84" s="4"/>
-      <c r="E84" s="4"/>
-      <c r="F84" s="4" t="s">
+      <c r="E84" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="F84" s="4"/>
       <c r="G84" s="4"/>
-      <c r="H84" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="I84" s="4"/>
+      <c r="H84" s="4"/>
+      <c r="I84" s="5" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="85" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>38</v>
@@ -2810,25 +2804,25 @@
       </c>
       <c r="G85" s="4"/>
       <c r="H85" s="5" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="I85" s="4"/>
     </row>
     <row r="86" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D86" s="4" t="n">
-        <v>50</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="D86" s="4"/>
       <c r="E86" s="4"/>
-      <c r="F86" s="4"/>
+      <c r="F86" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="G86" s="4"/>
       <c r="H86" s="5" t="s">
         <v>108</v>
@@ -2837,52 +2831,54 @@
     </row>
     <row r="87" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D87" s="4"/>
+        <v>42</v>
+      </c>
+      <c r="D87" s="4" t="n">
+        <v>50</v>
+      </c>
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
       <c r="G87" s="4"/>
       <c r="H87" s="5" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="I87" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="B88" s="8" t="s">
-        <v>102</v>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>103</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D88" s="8"/>
-      <c r="E88" s="8"/>
-      <c r="F88" s="8"/>
-      <c r="G88" s="8"/>
-      <c r="H88" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="I88" s="8" t="s">
-        <v>49</v>
+        <v>38</v>
+      </c>
+      <c r="D88" s="4"/>
+      <c r="E88" s="4"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="4"/>
+      <c r="H88" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="I88" s="4" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>104</v>
+        <v>50</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>51</v>
@@ -2892,217 +2888,217 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c r="H89" s="12" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I89" s="8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="14"/>
-      <c r="B90" s="15"/>
-      <c r="C90" s="14"/>
-      <c r="D90" s="15"/>
-      <c r="E90" s="15"/>
-      <c r="F90" s="15"/>
-      <c r="G90" s="15"/>
-      <c r="H90" s="15"/>
-      <c r="I90" s="15"/>
-    </row>
-    <row r="91" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="16" t="s">
+    <row r="90" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="13" t="n">
+        <v>7</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c r="H90" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="I90" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="14"/>
+      <c r="B91" s="15"/>
+      <c r="C91" s="14"/>
+      <c r="D91" s="15"/>
+      <c r="E91" s="15"/>
+      <c r="F91" s="15"/>
+      <c r="G91" s="15"/>
+      <c r="H91" s="15"/>
+      <c r="I91" s="15"/>
+    </row>
+    <row r="92" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B91" s="17" t="s">
+      <c r="B92" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C91" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="D91" s="17" t="n">
+      <c r="C92" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D92" s="17" t="n">
         <v>9</v>
       </c>
-      <c r="E91" s="18"/>
-      <c r="F91" s="18"/>
-      <c r="G91" s="18"/>
-      <c r="H91" s="18"/>
-      <c r="I91" s="18"/>
-    </row>
-    <row r="92" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B92" s="3" t="s">
+      <c r="E92" s="18"/>
+      <c r="F92" s="18"/>
+      <c r="G92" s="18"/>
+      <c r="H92" s="18"/>
+      <c r="I92" s="18"/>
+    </row>
+    <row r="93" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B93" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C92" s="3" t="s">
+      <c r="C93" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D92" s="3" t="s">
+      <c r="D93" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E92" s="3" t="s">
+      <c r="E93" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F92" s="3" t="s">
+      <c r="F93" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G92" s="3" t="s">
+      <c r="G93" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H92" s="3" t="s">
+      <c r="H93" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I92" s="3" t="s">
+      <c r="I93" s="3" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D93" s="4"/>
-      <c r="E93" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F93" s="4"/>
-      <c r="G93" s="4"/>
-      <c r="H93" s="4"/>
-      <c r="I93" s="5" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D94" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="E94" s="4"/>
+        <v>38</v>
+      </c>
+      <c r="D94" s="4"/>
+      <c r="E94" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="F94" s="4"/>
       <c r="G94" s="4"/>
-      <c r="H94" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="I94" s="4"/>
+      <c r="H94" s="4"/>
+      <c r="I94" s="5" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="95" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="0"/>
-      <c r="B95" s="0"/>
-      <c r="C95" s="0"/>
-      <c r="D95" s="0"/>
-      <c r="E95" s="0"/>
-      <c r="F95" s="0"/>
-      <c r="G95" s="0"/>
-      <c r="H95" s="0"/>
-      <c r="I95" s="0"/>
-    </row>
-    <row r="96" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="3" t="s">
+      <c r="A95" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="B96" s="9" t="s">
+      <c r="B95" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D95" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="E95" s="4"/>
+      <c r="F95" s="4"/>
+      <c r="G95" s="4"/>
+      <c r="H95" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="I95" s="4"/>
+    </row>
+    <row r="96" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="0"/>
+      <c r="B96" s="0"/>
+      <c r="C96" s="0"/>
+      <c r="D96" s="0"/>
+      <c r="E96" s="0"/>
+      <c r="F96" s="0"/>
+      <c r="G96" s="0"/>
+      <c r="H96" s="0"/>
+      <c r="I96" s="0"/>
+    </row>
+    <row r="97" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B97" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C96" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D96" s="9" t="n">
+      <c r="C97" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D97" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="E96" s="11"/>
-      <c r="F96" s="11"/>
-      <c r="G96" s="11"/>
-      <c r="H96" s="11"/>
-      <c r="I96" s="11"/>
-    </row>
-    <row r="97" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B97" s="3" t="s">
+      <c r="E97" s="11"/>
+      <c r="F97" s="11"/>
+      <c r="G97" s="11"/>
+      <c r="H97" s="11"/>
+      <c r="I97" s="11"/>
+    </row>
+    <row r="98" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B98" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C97" s="3" t="s">
+      <c r="C98" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D97" s="3" t="s">
+      <c r="D98" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E97" s="3" t="s">
+      <c r="E98" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F97" s="3" t="s">
+      <c r="F98" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G97" s="3" t="s">
+      <c r="G98" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H97" s="3" t="s">
+      <c r="H98" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I97" s="3" t="s">
+      <c r="I98" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B98" s="4" t="s">
+    <row r="99" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B99" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D98" s="4"/>
-      <c r="E98" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F98" s="4"/>
-      <c r="G98" s="4"/>
-      <c r="H98" s="4"/>
-      <c r="I98" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>110</v>
       </c>
       <c r="C99" s="4" t="s">
         <v>38</v>
       </c>
       <c r="D99" s="4"/>
-      <c r="E99" s="4"/>
-      <c r="F99" s="4" t="s">
+      <c r="E99" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="F99" s="4"/>
       <c r="G99" s="4"/>
-      <c r="H99" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="I99" s="4"/>
+      <c r="H99" s="4"/>
+      <c r="I99" s="5" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="100" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>112</v>
@@ -3123,50 +3119,52 @@
     </row>
     <row r="101" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="D101" s="4"/>
       <c r="E101" s="4"/>
-      <c r="F101" s="4"/>
+      <c r="F101" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="G101" s="4"/>
       <c r="H101" s="5" t="s">
-        <v>15</v>
+        <v>115</v>
       </c>
       <c r="I101" s="4"/>
     </row>
     <row r="102" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D102" s="4"/>
+      <c r="E102" s="4"/>
+      <c r="F102" s="4"/>
+      <c r="G102" s="4"/>
+      <c r="H102" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I102" s="4"/>
+    </row>
+    <row r="103" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="4" t="n">
         <v>5</v>
-      </c>
-      <c r="B102" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="C102" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D102" s="8"/>
-      <c r="E102" s="8"/>
-      <c r="F102" s="8"/>
-      <c r="G102" s="8"/>
-      <c r="H102" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="I102" s="8"/>
-    </row>
-    <row r="103" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="4" t="n">
-        <v>6</v>
       </c>
       <c r="B103" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="C103" s="8" t="s">
+      <c r="C103" s="4" t="s">
         <v>42</v>
       </c>
       <c r="D103" s="8"/>
@@ -3178,15 +3176,15 @@
       </c>
       <c r="I103" s="8"/>
     </row>
-    <row r="104" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B104" s="8" t="s">
         <v>119</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -3195,141 +3193,139 @@
       <c r="H104" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="I104" s="8" t="s">
-        <v>121</v>
-      </c>
+      <c r="I104" s="8"/>
     </row>
     <row r="105" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c r="H105" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="I105" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="I105" s="8" t="s">
+    </row>
+    <row r="106" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="B106" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C106" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c r="H106" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="I106" s="8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="0"/>
-      <c r="B106" s="0"/>
-      <c r="C106" s="0"/>
-      <c r="D106" s="0"/>
-      <c r="E106" s="0"/>
-      <c r="F106" s="0"/>
-      <c r="G106" s="0"/>
-      <c r="H106" s="0"/>
-      <c r="I106" s="0"/>
-    </row>
-    <row r="107" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="3" t="s">
+    <row r="107" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="0"/>
+      <c r="B107" s="0"/>
+      <c r="C107" s="0"/>
+      <c r="D107" s="0"/>
+      <c r="E107" s="0"/>
+      <c r="F107" s="0"/>
+      <c r="G107" s="0"/>
+      <c r="H107" s="0"/>
+      <c r="I107" s="0"/>
+    </row>
+    <row r="108" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B107" s="9" t="s">
+      <c r="B108" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C107" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D107" s="9" t="n">
+      <c r="C108" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D108" s="9" t="n">
         <v>11</v>
       </c>
-      <c r="E107" s="11"/>
-      <c r="F107" s="11"/>
-      <c r="G107" s="11"/>
-      <c r="H107" s="11"/>
-      <c r="I107" s="11"/>
-    </row>
-    <row r="108" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B108" s="3" t="s">
+      <c r="E108" s="11"/>
+      <c r="F108" s="11"/>
+      <c r="G108" s="11"/>
+      <c r="H108" s="11"/>
+      <c r="I108" s="11"/>
+    </row>
+    <row r="109" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B109" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C108" s="3" t="s">
+      <c r="C109" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D108" s="3" t="s">
+      <c r="D109" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E108" s="3" t="s">
+      <c r="E109" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F108" s="3" t="s">
+      <c r="F109" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G108" s="3" t="s">
+      <c r="G109" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H108" s="3" t="s">
+      <c r="H109" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I108" s="3" t="s">
+      <c r="I109" s="3" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C109" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D109" s="4"/>
-      <c r="E109" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F109" s="4"/>
-      <c r="G109" s="4"/>
-      <c r="H109" s="4"/>
-      <c r="I109" s="5" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>124</v>
+        <v>37</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="D110" s="4"/>
-      <c r="E110" s="4"/>
+      <c r="E110" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="F110" s="4"/>
       <c r="G110" s="4"/>
-      <c r="H110" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="I110" s="4" t="s">
-        <v>126</v>
+      <c r="H110" s="4"/>
+      <c r="I110" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D111" s="4"/>
       <c r="E111" s="4"/>
@@ -3338,111 +3334,132 @@
       <c r="H111" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="I111" s="4"/>
+      <c r="I111" s="4" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="112" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="0"/>
-      <c r="B112" s="0"/>
-      <c r="C112" s="0"/>
-      <c r="D112" s="0"/>
-      <c r="E112" s="0"/>
-      <c r="F112" s="0"/>
-      <c r="G112" s="0"/>
-      <c r="H112" s="0"/>
-      <c r="I112" s="0"/>
-    </row>
-    <row r="113" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="3" t="s">
+      <c r="A112" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D112" s="4"/>
+      <c r="E112" s="4"/>
+      <c r="F112" s="4"/>
+      <c r="G112" s="4"/>
+      <c r="H112" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="I112" s="4"/>
+    </row>
+    <row r="113" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="0"/>
+      <c r="B113" s="0"/>
+      <c r="C113" s="0"/>
+      <c r="D113" s="0"/>
+      <c r="E113" s="0"/>
+      <c r="F113" s="0"/>
+      <c r="G113" s="0"/>
+      <c r="H113" s="0"/>
+      <c r="I113" s="0"/>
+    </row>
+    <row r="114" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B113" s="9" t="s">
+      <c r="B114" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C113" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D113" s="9" t="n">
+      <c r="C114" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D114" s="9" t="n">
         <v>12</v>
       </c>
-      <c r="E113" s="11"/>
-      <c r="F113" s="11"/>
-      <c r="G113" s="11"/>
-      <c r="H113" s="11"/>
-      <c r="I113" s="11"/>
-    </row>
-    <row r="114" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B114" s="3" t="s">
+      <c r="E114" s="11"/>
+      <c r="F114" s="11"/>
+      <c r="G114" s="11"/>
+      <c r="H114" s="11"/>
+      <c r="I114" s="11"/>
+    </row>
+    <row r="115" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B115" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C114" s="3" t="s">
+      <c r="C115" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D114" s="3" t="s">
+      <c r="D115" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E114" s="3" t="s">
+      <c r="E115" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F114" s="3" t="s">
+      <c r="F115" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G114" s="3" t="s">
+      <c r="G115" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H114" s="3" t="s">
+      <c r="H115" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I114" s="3" t="s">
+      <c r="I115" s="3" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B115" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C115" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D115" s="4"/>
-      <c r="E115" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F115" s="4"/>
-      <c r="G115" s="4"/>
-      <c r="H115" s="4"/>
-      <c r="I115" s="5" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="C116" s="4" t="s">
         <v>38</v>
       </c>
       <c r="D116" s="4"/>
-      <c r="E116" s="4"/>
+      <c r="E116" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="F116" s="4"/>
       <c r="G116" s="4"/>
-      <c r="H116" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="I116" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="H116" s="4"/>
+      <c r="I116" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D117" s="4"/>
+      <c r="E117" s="4"/>
+      <c r="F117" s="4"/>
+      <c r="G117" s="4"/>
+      <c r="H117" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="I117" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
     <row r="118" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="119" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="27">
     <mergeCell ref="A1:D1"/>
@@ -3461,17 +3478,17 @@
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="E18:I18"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="E38:I38"/>
-    <mergeCell ref="E47:I47"/>
-    <mergeCell ref="E63:I63"/>
-    <mergeCell ref="E72:I72"/>
-    <mergeCell ref="E81:I81"/>
-    <mergeCell ref="E91:I91"/>
-    <mergeCell ref="E96:I96"/>
-    <mergeCell ref="E107:I107"/>
-    <mergeCell ref="E113:I113"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="E39:I39"/>
+    <mergeCell ref="E48:I48"/>
+    <mergeCell ref="E64:I64"/>
+    <mergeCell ref="E73:I73"/>
+    <mergeCell ref="E82:I82"/>
+    <mergeCell ref="E92:I92"/>
+    <mergeCell ref="E97:I97"/>
+    <mergeCell ref="E108:I108"/>
+    <mergeCell ref="E114:I114"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/document/数据字典.xlsx
+++ b/document/数据字典.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="132">
   <si>
     <t>表目录</t>
   </si>
@@ -647,9 +647,6 @@
     <t>邮件接收方</t>
   </si>
   <si>
-    <t>time</t>
-  </si>
-  <si>
     <t>subject</t>
   </si>
   <si>
@@ -768,6 +765,9 @@
       </rPr>
       <t xml:space="preserve">最终作品</t>
     </r>
+  </si>
+  <si>
+    <t>time</t>
   </si>
   <si>
     <t>截止时间</t>
@@ -1093,10 +1093,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I118"/>
+  <dimension ref="A1:I119"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A70" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I77" activeCellId="0" sqref="I77"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A91" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A99" activeCellId="0" sqref="A99:A107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -3075,7 +3075,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="4" t="n">
         <v>1</v>
       </c>
@@ -3138,52 +3138,56 @@
       </c>
       <c r="I101" s="4"/>
     </row>
-    <row r="102" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="B102" s="4" t="s">
-        <v>116</v>
+      <c r="B102" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="C102" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D102" s="4"/>
-      <c r="E102" s="4"/>
-      <c r="F102" s="4"/>
-      <c r="G102" s="4"/>
-      <c r="H102" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I102" s="4"/>
-    </row>
-    <row r="103" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c r="H102" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="I102" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="4" t="n">
         <v>5</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>117</v>
+        <v>53</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c r="H103" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="I103" s="8"/>
-    </row>
-    <row r="104" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>54</v>
+      </c>
+      <c r="I103" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="4" t="n">
         <v>6</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="C104" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C104" s="4" t="s">
         <v>42</v>
       </c>
       <c r="D104" s="8"/>
@@ -3191,275 +3195,294 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c r="H104" s="12" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="I104" s="8"/>
     </row>
-    <row r="105" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="4" t="n">
         <v>7</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c r="H105" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="I105" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+      <c r="I105" s="8"/>
+    </row>
+    <row r="106" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="4" t="n">
         <v>8</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c r="H106" s="12" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="I106" s="8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="B107" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C107" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c r="H107" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="I107" s="8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="0"/>
-      <c r="B107" s="0"/>
-      <c r="C107" s="0"/>
-      <c r="D107" s="0"/>
-      <c r="E107" s="0"/>
-      <c r="F107" s="0"/>
-      <c r="G107" s="0"/>
-      <c r="H107" s="0"/>
-      <c r="I107" s="0"/>
-    </row>
-    <row r="108" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="3" t="s">
+    <row r="108" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="0"/>
+      <c r="B108" s="0"/>
+      <c r="C108" s="0"/>
+      <c r="D108" s="0"/>
+      <c r="E108" s="0"/>
+      <c r="F108" s="0"/>
+      <c r="G108" s="0"/>
+      <c r="H108" s="0"/>
+      <c r="I108" s="0"/>
+    </row>
+    <row r="109" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B108" s="9" t="s">
+      <c r="B109" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C108" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D108" s="9" t="n">
+      <c r="C109" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D109" s="9" t="n">
         <v>11</v>
       </c>
-      <c r="E108" s="11"/>
-      <c r="F108" s="11"/>
-      <c r="G108" s="11"/>
-      <c r="H108" s="11"/>
-      <c r="I108" s="11"/>
-    </row>
-    <row r="109" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B109" s="3" t="s">
+      <c r="E109" s="11"/>
+      <c r="F109" s="11"/>
+      <c r="G109" s="11"/>
+      <c r="H109" s="11"/>
+      <c r="I109" s="11"/>
+    </row>
+    <row r="110" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B110" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C109" s="3" t="s">
+      <c r="C110" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D109" s="3" t="s">
+      <c r="D110" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E109" s="3" t="s">
+      <c r="E110" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F109" s="3" t="s">
+      <c r="F110" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G109" s="3" t="s">
+      <c r="G110" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H109" s="3" t="s">
+      <c r="H110" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I109" s="3" t="s">
+      <c r="I110" s="3" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B110" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C110" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D110" s="4"/>
-      <c r="E110" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F110" s="4"/>
-      <c r="G110" s="4"/>
-      <c r="H110" s="4"/>
-      <c r="I110" s="5" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>126</v>
+        <v>37</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="D111" s="4"/>
-      <c r="E111" s="4"/>
+      <c r="E111" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="F111" s="4"/>
       <c r="G111" s="4"/>
-      <c r="H111" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="I111" s="4" t="s">
-        <v>128</v>
+      <c r="H111" s="4"/>
+      <c r="I111" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D112" s="4"/>
       <c r="E112" s="4"/>
       <c r="F112" s="4"/>
       <c r="G112" s="4"/>
       <c r="H112" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="I112" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D113" s="4"/>
+      <c r="E113" s="4"/>
+      <c r="F113" s="4"/>
+      <c r="G113" s="4"/>
+      <c r="H113" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="I112" s="4"/>
-    </row>
-    <row r="113" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="0"/>
-      <c r="B113" s="0"/>
-      <c r="C113" s="0"/>
-      <c r="D113" s="0"/>
-      <c r="E113" s="0"/>
-      <c r="F113" s="0"/>
-      <c r="G113" s="0"/>
-      <c r="H113" s="0"/>
-      <c r="I113" s="0"/>
-    </row>
-    <row r="114" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="3" t="s">
+      <c r="I113" s="4"/>
+    </row>
+    <row r="114" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="0"/>
+      <c r="B114" s="0"/>
+      <c r="C114" s="0"/>
+      <c r="D114" s="0"/>
+      <c r="E114" s="0"/>
+      <c r="F114" s="0"/>
+      <c r="G114" s="0"/>
+      <c r="H114" s="0"/>
+      <c r="I114" s="0"/>
+    </row>
+    <row r="115" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B114" s="9" t="s">
+      <c r="B115" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C114" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D114" s="9" t="n">
+      <c r="C115" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D115" s="9" t="n">
         <v>12</v>
       </c>
-      <c r="E114" s="11"/>
-      <c r="F114" s="11"/>
-      <c r="G114" s="11"/>
-      <c r="H114" s="11"/>
-      <c r="I114" s="11"/>
-    </row>
-    <row r="115" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B115" s="3" t="s">
+      <c r="E115" s="11"/>
+      <c r="F115" s="11"/>
+      <c r="G115" s="11"/>
+      <c r="H115" s="11"/>
+      <c r="I115" s="11"/>
+    </row>
+    <row r="116" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B116" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C115" s="3" t="s">
+      <c r="C116" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D115" s="3" t="s">
+      <c r="D116" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E115" s="3" t="s">
+      <c r="E116" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F115" s="3" t="s">
+      <c r="F116" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G115" s="3" t="s">
+      <c r="G116" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H115" s="3" t="s">
+      <c r="H116" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I115" s="3" t="s">
+      <c r="I116" s="3" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B116" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C116" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D116" s="4"/>
-      <c r="E116" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F116" s="4"/>
-      <c r="G116" s="4"/>
-      <c r="H116" s="4"/>
-      <c r="I116" s="5" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>103</v>
+        <v>37</v>
       </c>
       <c r="C117" s="4" t="s">
         <v>38</v>
       </c>
       <c r="D117" s="4"/>
-      <c r="E117" s="4"/>
+      <c r="E117" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="F117" s="4"/>
       <c r="G117" s="4"/>
-      <c r="H117" s="5" t="s">
+      <c r="H117" s="4"/>
+      <c r="I117" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D118" s="4"/>
+      <c r="E118" s="4"/>
+      <c r="F118" s="4"/>
+      <c r="G118" s="4"/>
+      <c r="H118" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="I117" s="4" t="s">
+      <c r="I118" s="4" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="119" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="120" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="27">
     <mergeCell ref="A1:D1"/>
@@ -3487,8 +3510,8 @@
     <mergeCell ref="E82:I82"/>
     <mergeCell ref="E92:I92"/>
     <mergeCell ref="E97:I97"/>
-    <mergeCell ref="E108:I108"/>
-    <mergeCell ref="E114:I114"/>
+    <mergeCell ref="E109:I109"/>
+    <mergeCell ref="E115:I115"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/document/数据字典.xlsx
+++ b/document/数据字典.xlsx
@@ -713,7 +713,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">0-</t>
+      <t xml:space="preserve">1-</t>
     </r>
     <r>
       <rPr>
@@ -723,7 +723,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">团队组建，</t>
+      <t xml:space="preserve">团队组建，2</t>
     </r>
     <r>
       <rPr>
@@ -733,7 +733,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">1-</t>
+      <t xml:space="preserve">-</t>
     </r>
     <r>
       <rPr>
@@ -743,7 +743,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">项目报告，</t>
+      <t xml:space="preserve">项目报告，3</t>
     </r>
     <r>
       <rPr>
@@ -753,7 +753,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">2-</t>
+      <t xml:space="preserve">-</t>
     </r>
     <r>
       <rPr>
@@ -1095,8 +1095,8 @@
   </sheetPr>
   <dimension ref="A1:I119"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A91" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A99" activeCellId="0" sqref="A99:A107"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A106" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I114" activeCellId="0" sqref="I114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -3340,7 +3340,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="4" t="n">
         <v>2</v>
       </c>
@@ -3380,7 +3380,7 @@
       </c>
       <c r="I113" s="4"/>
     </row>
-    <row r="114" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0"/>
       <c r="B114" s="0"/>
       <c r="C114" s="0"/>

--- a/document/数据字典.xlsx
+++ b/document/数据字典.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="135">
   <si>
     <t>表目录</t>
   </si>
@@ -635,6 +635,9 @@
     <t>文档类别</t>
   </si>
   <si>
+    <t>teams表主键</t>
+  </si>
+  <si>
     <t>from_id</t>
   </si>
   <si>
@@ -704,6 +707,12 @@
   </si>
   <si>
     <t>删除标记</t>
+  </si>
+  <si>
+    <t>uid</t>
+  </si>
+  <si>
+    <t>唯一索引</t>
   </si>
   <si>
     <t>type</t>
@@ -1093,10 +1102,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I119"/>
+  <dimension ref="A1:I121"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A106" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I114" activeCellId="0" sqref="I114"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A103" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C95" activeCellId="0" sqref="C95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -3016,113 +3025,113 @@
       </c>
       <c r="I95" s="4"/>
     </row>
-    <row r="96" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="0"/>
-      <c r="B96" s="0"/>
-      <c r="C96" s="0"/>
-      <c r="D96" s="0"/>
-      <c r="E96" s="0"/>
-      <c r="F96" s="0"/>
-      <c r="G96" s="0"/>
-      <c r="H96" s="0"/>
-      <c r="I96" s="0"/>
-    </row>
-    <row r="97" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="3" t="s">
+    <row r="96" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D96" s="4"/>
+      <c r="E96" s="4"/>
+      <c r="F96" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G96" s="4"/>
+      <c r="H96" s="5"/>
+      <c r="I96" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="0"/>
+      <c r="B97" s="0"/>
+      <c r="C97" s="0"/>
+      <c r="D97" s="0"/>
+      <c r="E97" s="0"/>
+      <c r="F97" s="0"/>
+      <c r="G97" s="0"/>
+      <c r="H97" s="0"/>
+      <c r="I97" s="0"/>
+    </row>
+    <row r="98" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B97" s="9" t="s">
+      <c r="B98" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C97" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D97" s="9" t="n">
+      <c r="C98" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D98" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="E97" s="11"/>
-      <c r="F97" s="11"/>
-      <c r="G97" s="11"/>
-      <c r="H97" s="11"/>
-      <c r="I97" s="11"/>
-    </row>
-    <row r="98" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B98" s="3" t="s">
+      <c r="E98" s="11"/>
+      <c r="F98" s="11"/>
+      <c r="G98" s="11"/>
+      <c r="H98" s="11"/>
+      <c r="I98" s="11"/>
+    </row>
+    <row r="99" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B99" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C98" s="3" t="s">
+      <c r="C99" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D98" s="3" t="s">
+      <c r="D99" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E98" s="3" t="s">
+      <c r="E99" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F98" s="3" t="s">
+      <c r="F99" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G98" s="3" t="s">
+      <c r="G99" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H98" s="3" t="s">
+      <c r="H99" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I98" s="3" t="s">
+      <c r="I99" s="3" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D99" s="4"/>
-      <c r="E99" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F99" s="4"/>
-      <c r="G99" s="4"/>
-      <c r="H99" s="4"/>
-      <c r="I99" s="5" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>112</v>
+        <v>37</v>
       </c>
       <c r="C100" s="4" t="s">
         <v>38</v>
       </c>
       <c r="D100" s="4"/>
-      <c r="E100" s="4"/>
-      <c r="F100" s="4" t="s">
+      <c r="E100" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="F100" s="4"/>
       <c r="G100" s="4"/>
-      <c r="H100" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="I100" s="4"/>
+      <c r="H100" s="4"/>
+      <c r="I100" s="5" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="101" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C101" s="4" t="s">
         <v>38</v>
@@ -3134,37 +3143,37 @@
       </c>
       <c r="G101" s="4"/>
       <c r="H101" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="I101" s="4"/>
+    </row>
+    <row r="102" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B102" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="I101" s="4"/>
-    </row>
-    <row r="102" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="B102" s="8" t="s">
-        <v>50</v>
-      </c>
       <c r="C102" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D102" s="8"/>
-      <c r="E102" s="8"/>
-      <c r="F102" s="8"/>
-      <c r="G102" s="8"/>
-      <c r="H102" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="I102" s="8" t="s">
-        <v>49</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="D102" s="4"/>
+      <c r="E102" s="4"/>
+      <c r="F102" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G102" s="4"/>
+      <c r="H102" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="I102" s="4"/>
     </row>
     <row r="103" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C103" s="4" t="s">
         <v>51</v>
@@ -3174,39 +3183,41 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c r="H103" s="12" t="s">
-        <v>54</v>
+        <v>106</v>
       </c>
       <c r="I103" s="8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>116</v>
+        <v>53</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c r="H104" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="I104" s="8"/>
+        <v>54</v>
+      </c>
+      <c r="I104" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="105" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="C105" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C105" s="4" t="s">
         <v>42</v>
       </c>
       <c r="D105" s="8"/>
@@ -3214,275 +3225,317 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c r="H105" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="I105" s="8"/>
+    </row>
+    <row r="106" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="B106" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="I105" s="8"/>
-    </row>
-    <row r="106" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="4" t="n">
-        <v>8</v>
-      </c>
-      <c r="B106" s="8" t="s">
-        <v>120</v>
-      </c>
       <c r="C106" s="8" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c r="H106" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="I106" s="8" t="s">
-        <v>122</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="I106" s="8"/>
     </row>
     <row r="107" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c r="H107" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="I107" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="B108" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="I107" s="8" t="s">
+      <c r="C108" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c r="H108" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="I108" s="8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="0"/>
-      <c r="B108" s="0"/>
-      <c r="C108" s="0"/>
-      <c r="D108" s="0"/>
-      <c r="E108" s="0"/>
-      <c r="F108" s="0"/>
-      <c r="G108" s="0"/>
-      <c r="H108" s="0"/>
-      <c r="I108" s="0"/>
-    </row>
     <row r="109" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="3" t="s">
+      <c r="A109" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="B109" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C109" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D109" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c r="H109" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="I109" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="0"/>
+      <c r="B110" s="0"/>
+      <c r="C110" s="0"/>
+      <c r="D110" s="0"/>
+      <c r="E110" s="0"/>
+      <c r="F110" s="0"/>
+      <c r="G110" s="0"/>
+      <c r="H110" s="0"/>
+      <c r="I110" s="0"/>
+    </row>
+    <row r="111" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B109" s="9" t="s">
+      <c r="B111" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C109" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D109" s="9" t="n">
+      <c r="C111" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D111" s="9" t="n">
         <v>11</v>
       </c>
-      <c r="E109" s="11"/>
-      <c r="F109" s="11"/>
-      <c r="G109" s="11"/>
-      <c r="H109" s="11"/>
-      <c r="I109" s="11"/>
-    </row>
-    <row r="110" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B110" s="3" t="s">
+      <c r="E111" s="11"/>
+      <c r="F111" s="11"/>
+      <c r="G111" s="11"/>
+      <c r="H111" s="11"/>
+      <c r="I111" s="11"/>
+    </row>
+    <row r="112" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B112" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C110" s="3" t="s">
+      <c r="C112" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D110" s="3" t="s">
+      <c r="D112" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E110" s="3" t="s">
+      <c r="E112" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F110" s="3" t="s">
+      <c r="F112" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G110" s="3" t="s">
+      <c r="G112" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H110" s="3" t="s">
+      <c r="H112" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I110" s="3" t="s">
+      <c r="I112" s="3" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B111" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C111" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D111" s="4"/>
-      <c r="E111" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F111" s="4"/>
-      <c r="G111" s="4"/>
-      <c r="H111" s="4"/>
-      <c r="I111" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B112" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C112" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D112" s="4"/>
-      <c r="E112" s="4"/>
-      <c r="F112" s="4"/>
-      <c r="G112" s="4"/>
-      <c r="H112" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="I112" s="4" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>128</v>
+        <v>37</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="D113" s="4"/>
-      <c r="E113" s="4"/>
+      <c r="E113" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="F113" s="4"/>
       <c r="G113" s="4"/>
-      <c r="H113" s="5" t="s">
+      <c r="H113" s="4"/>
+      <c r="I113" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D114" s="4"/>
+      <c r="E114" s="4"/>
+      <c r="F114" s="4"/>
+      <c r="G114" s="4"/>
+      <c r="H114" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="I113" s="4"/>
-    </row>
-    <row r="114" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="0"/>
-      <c r="B114" s="0"/>
-      <c r="C114" s="0"/>
-      <c r="D114" s="0"/>
-      <c r="E114" s="0"/>
-      <c r="F114" s="0"/>
-      <c r="G114" s="0"/>
-      <c r="H114" s="0"/>
-      <c r="I114" s="0"/>
-    </row>
-    <row r="115" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="3" t="s">
+      <c r="I114" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D115" s="4"/>
+      <c r="E115" s="4"/>
+      <c r="F115" s="4"/>
+      <c r="G115" s="4"/>
+      <c r="H115" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="I115" s="4"/>
+    </row>
+    <row r="116" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="0"/>
+      <c r="B116" s="0"/>
+      <c r="C116" s="0"/>
+      <c r="D116" s="0"/>
+      <c r="E116" s="0"/>
+      <c r="F116" s="0"/>
+      <c r="G116" s="0"/>
+      <c r="H116" s="0"/>
+      <c r="I116" s="0"/>
+    </row>
+    <row r="117" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B115" s="9" t="s">
+      <c r="B117" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C115" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D115" s="9" t="n">
+      <c r="C117" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D117" s="9" t="n">
         <v>12</v>
       </c>
-      <c r="E115" s="11"/>
-      <c r="F115" s="11"/>
-      <c r="G115" s="11"/>
-      <c r="H115" s="11"/>
-      <c r="I115" s="11"/>
-    </row>
-    <row r="116" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B116" s="3" t="s">
+      <c r="E117" s="11"/>
+      <c r="F117" s="11"/>
+      <c r="G117" s="11"/>
+      <c r="H117" s="11"/>
+      <c r="I117" s="11"/>
+    </row>
+    <row r="118" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B118" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C116" s="3" t="s">
+      <c r="C118" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D116" s="3" t="s">
+      <c r="D118" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E116" s="3" t="s">
+      <c r="E118" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F116" s="3" t="s">
+      <c r="F118" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G116" s="3" t="s">
+      <c r="G118" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H116" s="3" t="s">
+      <c r="H118" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I116" s="3" t="s">
+      <c r="I118" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B117" s="4" t="s">
+    <row r="119" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B119" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C117" s="4" t="s">
+      <c r="C119" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D117" s="4"/>
-      <c r="E117" s="4" t="s">
+      <c r="D119" s="4"/>
+      <c r="E119" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F117" s="4"/>
-      <c r="G117" s="4"/>
-      <c r="H117" s="4"/>
-      <c r="I117" s="5" t="s">
+      <c r="F119" s="4"/>
+      <c r="G119" s="4"/>
+      <c r="H119" s="4"/>
+      <c r="I119" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="4" t="n">
+    <row r="120" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="B118" s="4" t="s">
+      <c r="B120" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C118" s="4" t="s">
+      <c r="C120" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D118" s="4"/>
-      <c r="E118" s="4"/>
-      <c r="F118" s="4"/>
-      <c r="G118" s="4"/>
-      <c r="H118" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="I118" s="4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="120" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="D120" s="4"/>
+      <c r="E120" s="4"/>
+      <c r="F120" s="4"/>
+      <c r="G120" s="4"/>
+      <c r="H120" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="I120" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="122" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="27">
     <mergeCell ref="A1:D1"/>
@@ -3509,9 +3562,9 @@
     <mergeCell ref="E73:I73"/>
     <mergeCell ref="E82:I82"/>
     <mergeCell ref="E92:I92"/>
-    <mergeCell ref="E97:I97"/>
-    <mergeCell ref="E109:I109"/>
-    <mergeCell ref="E115:I115"/>
+    <mergeCell ref="E98:I98"/>
+    <mergeCell ref="E111:I111"/>
+    <mergeCell ref="E117:I117"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/document/数据字典.xlsx
+++ b/document/数据字典.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="138">
   <si>
     <t>表目录</t>
   </si>
@@ -703,10 +703,19 @@
     </r>
   </si>
   <si>
-    <t>deleted_at</t>
-  </si>
-  <si>
-    <t>删除标记</t>
+    <t>del_s</t>
+  </si>
+  <si>
+    <t>发送方删除</t>
+  </si>
+  <si>
+    <t>1-已删，0-未删</t>
+  </si>
+  <si>
+    <t>del_r</t>
+  </si>
+  <si>
+    <t>接收方删除</t>
   </si>
   <si>
     <t>uid</t>
@@ -1102,10 +1111,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I121"/>
+  <dimension ref="A1:I122"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A103" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C95" activeCellId="0" sqref="C95"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A100" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I109" activeCellId="0" sqref="I109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -3269,7 +3278,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="4" t="n">
         <v>9</v>
       </c>
@@ -3277,7 +3286,7 @@
         <v>124</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -3287,142 +3296,142 @@
         <v>125</v>
       </c>
       <c r="I108" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="4" t="n">
         <v>10</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D109" s="8" t="n">
-        <v>20</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c r="H109" s="12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I109" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="B110" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C110" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D110" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c r="H110" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="I110" s="8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="0"/>
-      <c r="B110" s="0"/>
-      <c r="C110" s="0"/>
-      <c r="D110" s="0"/>
-      <c r="E110" s="0"/>
-      <c r="F110" s="0"/>
-      <c r="G110" s="0"/>
-      <c r="H110" s="0"/>
-      <c r="I110" s="0"/>
-    </row>
-    <row r="111" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="3" t="s">
+    <row r="111" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="0"/>
+      <c r="B111" s="0"/>
+      <c r="C111" s="0"/>
+      <c r="D111" s="0"/>
+      <c r="E111" s="0"/>
+      <c r="F111" s="0"/>
+      <c r="G111" s="0"/>
+      <c r="H111" s="0"/>
+      <c r="I111" s="0"/>
+    </row>
+    <row r="112" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B111" s="9" t="s">
+      <c r="B112" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C111" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D111" s="9" t="n">
+      <c r="C112" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D112" s="9" t="n">
         <v>11</v>
       </c>
-      <c r="E111" s="11"/>
-      <c r="F111" s="11"/>
-      <c r="G111" s="11"/>
-      <c r="H111" s="11"/>
-      <c r="I111" s="11"/>
-    </row>
-    <row r="112" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B112" s="3" t="s">
+      <c r="E112" s="11"/>
+      <c r="F112" s="11"/>
+      <c r="G112" s="11"/>
+      <c r="H112" s="11"/>
+      <c r="I112" s="11"/>
+    </row>
+    <row r="113" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B113" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C112" s="3" t="s">
+      <c r="C113" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D112" s="3" t="s">
+      <c r="D113" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E112" s="3" t="s">
+      <c r="E113" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F112" s="3" t="s">
+      <c r="F113" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G112" s="3" t="s">
+      <c r="G113" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H112" s="3" t="s">
+      <c r="H113" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I112" s="3" t="s">
+      <c r="I113" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B113" s="4" t="s">
+    <row r="114" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B114" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C113" s="4" t="s">
+      <c r="C114" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D113" s="4"/>
-      <c r="E113" s="4" t="s">
+      <c r="D114" s="4"/>
+      <c r="E114" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F113" s="4"/>
-      <c r="G113" s="4"/>
-      <c r="H113" s="4"/>
-      <c r="I113" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B114" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C114" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D114" s="4"/>
-      <c r="E114" s="4"/>
       <c r="F114" s="4"/>
       <c r="G114" s="4"/>
-      <c r="H114" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="I114" s="4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H114" s="4"/>
+      <c r="I114" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B115" s="4" t="s">
         <v>131</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D115" s="4"/>
       <c r="E115" s="4"/>
@@ -3431,111 +3440,132 @@
       <c r="H115" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="I115" s="4"/>
-    </row>
-    <row r="116" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="0"/>
-      <c r="B116" s="0"/>
-      <c r="C116" s="0"/>
-      <c r="D116" s="0"/>
-      <c r="E116" s="0"/>
-      <c r="F116" s="0"/>
-      <c r="G116" s="0"/>
-      <c r="H116" s="0"/>
-      <c r="I116" s="0"/>
+      <c r="I115" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D116" s="4"/>
+      <c r="E116" s="4"/>
+      <c r="F116" s="4"/>
+      <c r="G116" s="4"/>
+      <c r="H116" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="I116" s="4"/>
     </row>
     <row r="117" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="3" t="s">
+      <c r="A117" s="0"/>
+      <c r="B117" s="0"/>
+      <c r="C117" s="0"/>
+      <c r="D117" s="0"/>
+      <c r="E117" s="0"/>
+      <c r="F117" s="0"/>
+      <c r="G117" s="0"/>
+      <c r="H117" s="0"/>
+      <c r="I117" s="0"/>
+    </row>
+    <row r="118" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B117" s="9" t="s">
+      <c r="B118" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C117" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D117" s="9" t="n">
+      <c r="C118" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D118" s="9" t="n">
         <v>12</v>
       </c>
-      <c r="E117" s="11"/>
-      <c r="F117" s="11"/>
-      <c r="G117" s="11"/>
-      <c r="H117" s="11"/>
-      <c r="I117" s="11"/>
-    </row>
-    <row r="118" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B118" s="3" t="s">
+      <c r="E118" s="11"/>
+      <c r="F118" s="11"/>
+      <c r="G118" s="11"/>
+      <c r="H118" s="11"/>
+      <c r="I118" s="11"/>
+    </row>
+    <row r="119" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B119" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C118" s="3" t="s">
+      <c r="C119" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D118" s="3" t="s">
+      <c r="D119" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E118" s="3" t="s">
+      <c r="E119" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F118" s="3" t="s">
+      <c r="F119" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G118" s="3" t="s">
+      <c r="G119" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H118" s="3" t="s">
+      <c r="H119" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I118" s="3" t="s">
+      <c r="I119" s="3" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B119" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C119" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D119" s="4"/>
-      <c r="E119" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F119" s="4"/>
-      <c r="G119" s="4"/>
-      <c r="H119" s="4"/>
-      <c r="I119" s="5" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>103</v>
+        <v>37</v>
       </c>
       <c r="C120" s="4" t="s">
         <v>38</v>
       </c>
       <c r="D120" s="4"/>
-      <c r="E120" s="4"/>
+      <c r="E120" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="F120" s="4"/>
       <c r="G120" s="4"/>
-      <c r="H120" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="I120" s="4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="121" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="H120" s="4"/>
+      <c r="I120" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D121" s="4"/>
+      <c r="E121" s="4"/>
+      <c r="F121" s="4"/>
+      <c r="G121" s="4"/>
+      <c r="H121" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="I121" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
     <row r="122" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="123" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="27">
     <mergeCell ref="A1:D1"/>
@@ -3563,8 +3593,8 @@
     <mergeCell ref="E82:I82"/>
     <mergeCell ref="E92:I92"/>
     <mergeCell ref="E98:I98"/>
-    <mergeCell ref="E111:I111"/>
-    <mergeCell ref="E117:I117"/>
+    <mergeCell ref="E112:I112"/>
+    <mergeCell ref="E118:I118"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
